--- a/_Lang_Korean/Lang/KR/Game/Game.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Game.xlsx
@@ -863,7 +863,7 @@
     <t xml:space="preserve">tame_send</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2로(으로) 향했다.</t>
+    <t xml:space="preserve">#1은(는) #2으(로) 향했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 are/is headed to #2.</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">materialChanged</t>
   </si>
   <si>
-    <t xml:space="preserve">소재 #1은(는) #2로(으로) 변화되었다.</t>
+    <t xml:space="preserve">소재 #1은(는) #2으(로) 변화되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 transform(s) into #2.</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">shop</t>
   </si>
   <si>
-    <t xml:space="preserve">#1을(를) #2로(으로) 판매했다.</t>
+    <t xml:space="preserve">#1을(를) #2으(로) 판매했다.</t>
   </si>
   <si>
     <t xml:space="preserve">You sell #1 for #2.</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">bExpeditionStart</t>
   </si>
   <si>
-    <t xml:space="preserve">#1이(가) #2로(으로) 출발했다.</t>
+    <t xml:space="preserve">#1이(가) #2으(로) 출발했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 starts an exploration for #2.</t>
@@ -5039,7 +5039,7 @@
     <t xml:space="preserve">brew</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2로 발효되었다</t>
+    <t xml:space="preserve">#1은(는) #2으(로) 발효되었다</t>
   </si>
   <si>
     <t xml:space="preserve">#1 ferment(s) into #2.</t>
@@ -5063,7 +5063,7 @@
     <t xml:space="preserve">agedFood</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2로 숙성되었다.</t>
+    <t xml:space="preserve">#1은(는) #2으(로) 숙성되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 are/is aged to become #2.</t>
@@ -5432,7 +5432,7 @@
     <t xml:space="preserve">replace_pc</t>
   </si>
   <si>
-    <t xml:space="preserve">#2로 교체되었다.</t>
+    <t xml:space="preserve">#2으(로) 교체되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">You displace #2.</t>
@@ -5519,7 +5519,7 @@
     <t xml:space="preserve">drunk_mess</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) 완전히 취해서 #2과 뒤엉켰다.</t>
+    <t xml:space="preserve">#1은(는) 완전히 취해서 #2와(과) 뒤엉켰다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 get(s) the worse for drink and catch(es) #2.</t>
@@ -6476,7 +6476,7 @@
     <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
-    <t xml:space="preserve">컨테이너 권한을 「#2」로(으로) 변경했다.</t>
+    <t xml:space="preserve">컨테이너 권한을 「#2」으(로) 변경했다.</t>
   </si>
   <si>
     <t xml:space="preserve">The container is now "#2".</t>
@@ -7528,7 +7528,7 @@
     <t xml:space="preserve">drawWater</t>
   </si>
   <si>
-    <t xml:space="preserve">#1로 물을 끌어들였다.</t>
+    <t xml:space="preserve">#1으(로) 물을 끌어들였다.</t>
   </si>
   <si>
     <t xml:space="preserve">You draw water into #1.</t>
@@ -8894,7 +8894,7 @@
     <t xml:space="preserve">piety1</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2와의 거리가 줄어들었음을 느낀다.</t>
+    <t xml:space="preserve">#1은(는) #2와(과)의 거리가 줄어들었음을 느낀다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 feel(s) the distance to #his #2 lessening.</t>
@@ -8957,7 +8957,7 @@
     <t xml:space="preserve">takeover_versus</t>
   </si>
   <si>
-    <t xml:space="preserve">이상한 안개가 나타나, #1과 #2의 환영이 싸우기 시작했다.</t>
+    <t xml:space="preserve">이상한 안개가 나타나, #1와(과) #2의 환영이 싸우기 시작했다.</t>
   </si>
   <si>
     <t xml:space="preserve">Strange fogs surround all over the place. You see shadows of #1 and #2 make a fierce dance.</t>
@@ -9299,7 +9299,7 @@
     <t xml:space="preserve">use_leash</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 #2로(으로) #1을(를) 묶어두었다.</t>
+    <t xml:space="preserve">당신은 #2으(로) #1을(를) 묶어두었다.</t>
   </si>
   <si>
     <t xml:space="preserve">You put #2 on #1.</t>
@@ -9323,7 +9323,7 @@
     <t xml:space="preserve">use_whip</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 #2로(으로) #1을(를) 때렸다.</t>
+    <t xml:space="preserve">당신은 #2으(로) #1을(를) 때렸다.</t>
   </si>
   <si>
     <t xml:space="preserve">You whip #1 with #2.</t>
@@ -10229,7 +10229,7 @@
     <t xml:space="preserve">homerank_up</t>
   </si>
   <si>
-    <t xml:space="preserve">홈 랭크의 최고기록이 #1으로 업데이트 되었다.</t>
+    <t xml:space="preserve">홈 랭크의 최고기록이 #1으(로) 업데이트 되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">The highest ranking of your home has been updated to '#1'.</t>
@@ -10241,7 +10241,7 @@
     <t xml:space="preserve">upgrade_hearth</t>
   </si>
   <si>
-    <t xml:space="preserve">#2 맹약의 돌의 레벨이 #1으로 성장했다!</t>
+    <t xml:space="preserve">#2 맹약의 돌의 레벨이 #1으(로) 성장했다!</t>
   </si>
   <si>
     <t xml:space="preserve">The hearth stone in #2 has grown to level #1!</t>
@@ -10367,7 +10367,7 @@
     <t xml:space="preserve">Beta 22.73</t>
   </si>
   <si>
-    <t xml:space="preserve">#1을(를) #2로(으로) 개선했다.</t>
+    <t xml:space="preserve">#1을(를) #2으(로) 개선했다.</t>
   </si>
   <si>
     <t xml:space="preserve">You upgrade #1 with #2.</t>
@@ -10448,7 +10448,7 @@
     <t xml:space="preserve">Beta 22.30</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2로(으로) 개종했다.</t>
+    <t xml:space="preserve">#1은(는) #2으(로) 개종했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 convert(s) to #2!</t>
@@ -10781,7 +10781,7 @@
     <t xml:space="preserve">returnHome</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2로(으로) 돌아갔다.</t>
+    <t xml:space="preserve">#1은(는) #2으(로) 돌아갔다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 return(s) to #2.</t>
@@ -11085,12 +11085,12 @@
   <dimension ref="A1:F890"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A708" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D721" activeCellId="0" sqref="D721"/>
+      <selection pane="bottomLeft" activeCell="D730" activeCellId="0" sqref="D730"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.06"/>
@@ -23947,7 +23947,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
         <v>2877</v>
       </c>

--- a/_Lang_Korean/Lang/KR/Game/Game.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Game.xlsx
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">combat</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는)#3#2을(를) 영창했다.</t>
+    <t xml:space="preserve">#1은(는)#3#2을(를) 시전했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 cast(s) #2#3.</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">cast_silence</t>
   </si>
   <si>
-    <t xml:space="preserve">침묵의 안개가 영창을 방해했다.</t>
+    <t xml:space="preserve">침묵의 안개가 주문 시전을 방해했다.</t>
   </si>
   <si>
     <t xml:space="preserve">The mist of silence interrupts a spell.</t>
@@ -6338,7 +6338,7 @@
     <t xml:space="preserve">idle_cast</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) 마법을 영창했다.</t>
+    <t xml:space="preserve">#1은(는) 마법을 시전했다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 chant(s) a spell.</t>
@@ -11085,12 +11085,12 @@
   <dimension ref="A1:F890"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D730" activeCellId="0" sqref="D730"/>
+      <selection pane="bottomLeft" activeCell="D522" activeCellId="0" sqref="D522"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.06"/>

--- a/_Lang_Korean/Lang/KR/Game/Game.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F83E82-D894-4B92-BD9A-1E4D8E1E10EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3B1A4-43A7-419B-9FA1-2CA919AA0D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="3578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="3577">
   <si>
     <t>id</t>
   </si>
@@ -8849,9 +8849,6 @@
     <t>#1의 공격이 빗나갔다.</t>
   </si>
   <si>
-    <t>#1에게 가한 공격은 빗나갔다.</t>
-  </si>
-  <si>
     <t>#1의 공격은 멋지게 빗나갔다.</t>
   </si>
   <si>
@@ -8883,9 +8880,6 @@
   </si>
   <si>
     <t>깊은 상처를 냈다.</t>
-  </si>
-  <si>
-    <t>치명적상을 입혔다.</t>
   </si>
   <si>
     <t>빈사 상태가 되었다.</t>
@@ -9598,9 +9592,6 @@
   </si>
   <si>
     <t>#1은(는) #2에 명중했다.</t>
-  </si>
-  <si>
-    <t>#2으(로) 교체되었다.</t>
   </si>
   <si>
     <t>#1은(는) #2을(를) 밀어냈다.</t>
@@ -10973,7 +10964,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치명적상처을 입혔다.</t>
+    <t>치명적인 상처를 입혔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2에게 가한 공격은 빗나갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2으(로) 자리를 바꿨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11346,13 +11345,15 @@
   <dimension ref="A1:F890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I196" sqref="I196"/>
+      <pane ySplit="2" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D446" sqref="D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13593,7 +13594,7 @@
         <v>366</v>
       </c>
       <c r="D124" t="s">
-        <v>3573</v>
+        <v>3570</v>
       </c>
       <c r="E124" t="s">
         <v>370</v>
@@ -13613,7 +13614,7 @@
         <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>3574</v>
+        <v>3571</v>
       </c>
       <c r="E125" t="s">
         <v>370</v>
@@ -14729,7 +14730,7 @@
         <v>366</v>
       </c>
       <c r="D185" t="s">
-        <v>2891</v>
+        <v>3575</v>
       </c>
       <c r="E185" t="s">
         <v>548</v>
@@ -14749,7 +14750,7 @@
         <v>366</v>
       </c>
       <c r="D186" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="E186" t="s">
         <v>553</v>
@@ -14769,7 +14770,7 @@
         <v>366</v>
       </c>
       <c r="D187" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="E187" t="s">
         <v>553</v>
@@ -14789,7 +14790,7 @@
         <v>366</v>
       </c>
       <c r="D188" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="E188" t="s">
         <v>558</v>
@@ -14809,7 +14810,7 @@
         <v>366</v>
       </c>
       <c r="D189" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="E189" t="s">
         <v>558</v>
@@ -14829,7 +14830,7 @@
         <v>366</v>
       </c>
       <c r="D190" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="E190" t="s">
         <v>558</v>
@@ -14849,7 +14850,7 @@
         <v>366</v>
       </c>
       <c r="D191" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="E191" t="s">
         <v>565</v>
@@ -14869,7 +14870,7 @@
         <v>366</v>
       </c>
       <c r="D192" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="E192" t="s">
         <v>568</v>
@@ -14889,7 +14890,7 @@
         <v>366</v>
       </c>
       <c r="D193" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="E193" t="s">
         <v>571</v>
@@ -14909,7 +14910,7 @@
         <v>366</v>
       </c>
       <c r="D194" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="E194" t="s">
         <v>574</v>
@@ -14929,7 +14930,7 @@
         <v>366</v>
       </c>
       <c r="D195" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="E195" t="s">
         <v>577</v>
@@ -14949,7 +14950,7 @@
         <v>366</v>
       </c>
       <c r="D196" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="E196" t="s">
         <v>580</v>
@@ -14969,7 +14970,7 @@
         <v>366</v>
       </c>
       <c r="D197" t="s">
-        <v>3577</v>
+        <v>3574</v>
       </c>
       <c r="E197" t="s">
         <v>583</v>
@@ -14989,7 +14990,7 @@
         <v>366</v>
       </c>
       <c r="D198" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="E198" t="s">
         <v>586</v>
@@ -15009,7 +15010,7 @@
         <v>366</v>
       </c>
       <c r="D199" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="E199" t="s">
         <v>571</v>
@@ -15029,7 +15030,7 @@
         <v>366</v>
       </c>
       <c r="D200" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="E200" t="s">
         <v>574</v>
@@ -15049,7 +15050,7 @@
         <v>366</v>
       </c>
       <c r="D201" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="E201" t="s">
         <v>577</v>
@@ -15069,7 +15070,7 @@
         <v>366</v>
       </c>
       <c r="D202" t="s">
-        <v>2903</v>
+        <v>3574</v>
       </c>
       <c r="E202" t="s">
         <v>580</v>
@@ -15089,7 +15090,7 @@
         <v>366</v>
       </c>
       <c r="D203" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="E203" t="s">
         <v>583</v>
@@ -15109,7 +15110,7 @@
         <v>366</v>
       </c>
       <c r="D204" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="E204" t="s">
         <v>586</v>
@@ -15149,7 +15150,7 @@
         <v>366</v>
       </c>
       <c r="D206" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="E206" t="s">
         <v>603</v>
@@ -15169,7 +15170,7 @@
         <v>366</v>
       </c>
       <c r="D207" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="E207" t="s">
         <v>606</v>
@@ -15189,7 +15190,7 @@
         <v>366</v>
       </c>
       <c r="D208" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="E208" t="s">
         <v>609</v>
@@ -15209,7 +15210,7 @@
         <v>366</v>
       </c>
       <c r="D209" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="E209" t="s">
         <v>612</v>
@@ -15229,7 +15230,7 @@
         <v>366</v>
       </c>
       <c r="D210" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="E210" t="s">
         <v>612</v>
@@ -15249,7 +15250,7 @@
         <v>366</v>
       </c>
       <c r="D211" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="E211" t="s">
         <v>616</v>
@@ -15269,7 +15270,7 @@
         <v>366</v>
       </c>
       <c r="D212" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="E212" t="s">
         <v>619</v>
@@ -15289,7 +15290,7 @@
         <v>366</v>
       </c>
       <c r="D213" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="E213" t="s">
         <v>622</v>
@@ -15309,7 +15310,7 @@
         <v>366</v>
       </c>
       <c r="D214" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="E214" t="s">
         <v>625</v>
@@ -15329,7 +15330,7 @@
         <v>366</v>
       </c>
       <c r="D215" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="E215" t="s">
         <v>628</v>
@@ -15349,7 +15350,7 @@
         <v>366</v>
       </c>
       <c r="D216" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="E216" t="s">
         <v>631</v>
@@ -15369,7 +15370,7 @@
         <v>366</v>
       </c>
       <c r="D217" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="E217" t="s">
         <v>634</v>
@@ -15389,7 +15390,7 @@
         <v>366</v>
       </c>
       <c r="D218" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="E218" t="s">
         <v>637</v>
@@ -15409,7 +15410,7 @@
         <v>366</v>
       </c>
       <c r="D219" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="E219" t="s">
         <v>640</v>
@@ -15429,7 +15430,7 @@
         <v>366</v>
       </c>
       <c r="D220" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="E220" t="s">
         <v>643</v>
@@ -15449,7 +15450,7 @@
         <v>366</v>
       </c>
       <c r="D221" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="E221" t="s">
         <v>646</v>
@@ -15469,7 +15470,7 @@
         <v>366</v>
       </c>
       <c r="D222" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="E222" t="s">
         <v>649</v>
@@ -15489,7 +15490,7 @@
         <v>366</v>
       </c>
       <c r="D223" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="E223" t="s">
         <v>652</v>
@@ -15509,7 +15510,7 @@
         <v>366</v>
       </c>
       <c r="D224" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="E224" t="s">
         <v>655</v>
@@ -15529,7 +15530,7 @@
         <v>366</v>
       </c>
       <c r="D225" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="E225" t="s">
         <v>658</v>
@@ -15560,7 +15561,7 @@
         <v>366</v>
       </c>
       <c r="D227" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="E227" t="s">
         <v>662</v>
@@ -15580,7 +15581,7 @@
         <v>366</v>
       </c>
       <c r="D228" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="E228" t="s">
         <v>665</v>
@@ -15600,7 +15601,7 @@
         <v>366</v>
       </c>
       <c r="D229" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="E229" t="s">
         <v>668</v>
@@ -15620,7 +15621,7 @@
         <v>366</v>
       </c>
       <c r="D230" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="E230" t="s">
         <v>671</v>
@@ -15640,7 +15641,7 @@
         <v>366</v>
       </c>
       <c r="D231" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="E231" t="s">
         <v>674</v>
@@ -15660,7 +15661,7 @@
         <v>366</v>
       </c>
       <c r="D232" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="E232" t="s">
         <v>677</v>
@@ -15680,7 +15681,7 @@
         <v>366</v>
       </c>
       <c r="D233" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="E233" t="s">
         <v>680</v>
@@ -15700,7 +15701,7 @@
         <v>366</v>
       </c>
       <c r="D234" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="E234" t="s">
         <v>683</v>
@@ -15720,7 +15721,7 @@
         <v>366</v>
       </c>
       <c r="D235" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="E235" t="s">
         <v>686</v>
@@ -15740,7 +15741,7 @@
         <v>366</v>
       </c>
       <c r="D236" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="E236" t="s">
         <v>689</v>
@@ -15760,7 +15761,7 @@
         <v>366</v>
       </c>
       <c r="D237" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="E237" t="s">
         <v>692</v>
@@ -15780,7 +15781,7 @@
         <v>366</v>
       </c>
       <c r="D238" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="E238" t="s">
         <v>695</v>
@@ -15800,7 +15801,7 @@
         <v>366</v>
       </c>
       <c r="D239" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="E239" t="s">
         <v>698</v>
@@ -15820,7 +15821,7 @@
         <v>366</v>
       </c>
       <c r="D240" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="E240" t="s">
         <v>701</v>
@@ -15840,7 +15841,7 @@
         <v>366</v>
       </c>
       <c r="D241" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="E241" t="s">
         <v>704</v>
@@ -15860,7 +15861,7 @@
         <v>366</v>
       </c>
       <c r="D242" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="E242" t="s">
         <v>707</v>
@@ -15880,7 +15881,7 @@
         <v>366</v>
       </c>
       <c r="D243" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="E243" t="s">
         <v>710</v>
@@ -15900,7 +15901,7 @@
         <v>366</v>
       </c>
       <c r="D244" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="E244" t="s">
         <v>713</v>
@@ -15920,7 +15921,7 @@
         <v>366</v>
       </c>
       <c r="D245" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="E245" t="s">
         <v>716</v>
@@ -15940,7 +15941,7 @@
         <v>366</v>
       </c>
       <c r="D246" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="E246" t="s">
         <v>719</v>
@@ -15960,7 +15961,7 @@
         <v>366</v>
       </c>
       <c r="D247" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="E247" t="s">
         <v>722</v>
@@ -15980,7 +15981,7 @@
         <v>366</v>
       </c>
       <c r="D248" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="E248" t="s">
         <v>725</v>
@@ -16000,7 +16001,7 @@
         <v>366</v>
       </c>
       <c r="D249" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E249" t="s">
         <v>728</v>
@@ -16020,7 +16021,7 @@
         <v>366</v>
       </c>
       <c r="D250" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="E250" t="s">
         <v>731</v>
@@ -16040,7 +16041,7 @@
         <v>366</v>
       </c>
       <c r="D251" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="E251" t="s">
         <v>734</v>
@@ -16060,7 +16061,7 @@
         <v>366</v>
       </c>
       <c r="D252" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="E252" t="s">
         <v>737</v>
@@ -16080,7 +16081,7 @@
         <v>366</v>
       </c>
       <c r="D253" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="E253" t="s">
         <v>740</v>
@@ -16100,7 +16101,7 @@
         <v>366</v>
       </c>
       <c r="D254" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="E254" t="s">
         <v>743</v>
@@ -16120,7 +16121,7 @@
         <v>366</v>
       </c>
       <c r="D255" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="E255" t="s">
         <v>746</v>
@@ -16140,7 +16141,7 @@
         <v>366</v>
       </c>
       <c r="D256" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="E256" t="s">
         <v>749</v>
@@ -16160,7 +16161,7 @@
         <v>366</v>
       </c>
       <c r="D257" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="E257" t="s">
         <v>752</v>
@@ -16180,7 +16181,7 @@
         <v>366</v>
       </c>
       <c r="D258" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="E258" t="s">
         <v>755</v>
@@ -16200,7 +16201,7 @@
         <v>366</v>
       </c>
       <c r="D259" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="E259" t="s">
         <v>758</v>
@@ -16220,7 +16221,7 @@
         <v>366</v>
       </c>
       <c r="D260" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="E260" t="s">
         <v>761</v>
@@ -16240,7 +16241,7 @@
         <v>366</v>
       </c>
       <c r="D261" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="E261" t="s">
         <v>764</v>
@@ -16260,7 +16261,7 @@
         <v>366</v>
       </c>
       <c r="D262" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="E262" t="s">
         <v>767</v>
@@ -16280,7 +16281,7 @@
         <v>366</v>
       </c>
       <c r="D263" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="E263" t="s">
         <v>770</v>
@@ -16300,7 +16301,7 @@
         <v>366</v>
       </c>
       <c r="D264" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="E264" t="s">
         <v>773</v>
@@ -16320,7 +16321,7 @@
         <v>366</v>
       </c>
       <c r="D265" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="E265" t="s">
         <v>776</v>
@@ -16340,7 +16341,7 @@
         <v>366</v>
       </c>
       <c r="D266" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="E266" t="s">
         <v>779</v>
@@ -16360,7 +16361,7 @@
         <v>366</v>
       </c>
       <c r="D267" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="E267" t="s">
         <v>782</v>
@@ -16380,7 +16381,7 @@
         <v>366</v>
       </c>
       <c r="D268" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="E268" t="s">
         <v>785</v>
@@ -16400,7 +16401,7 @@
         <v>366</v>
       </c>
       <c r="D269" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="E269" t="s">
         <v>788</v>
@@ -16420,7 +16421,7 @@
         <v>366</v>
       </c>
       <c r="D270" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="E270" t="s">
         <v>791</v>
@@ -16440,7 +16441,7 @@
         <v>366</v>
       </c>
       <c r="D271" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="E271" t="s">
         <v>794</v>
@@ -16457,7 +16458,7 @@
         <v>2631</v>
       </c>
       <c r="D272" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="E272" t="s">
         <v>797</v>
@@ -16474,7 +16475,7 @@
         <v>2661</v>
       </c>
       <c r="D273" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="E273" t="s">
         <v>800</v>
@@ -16491,7 +16492,7 @@
         <v>2656</v>
       </c>
       <c r="D274" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="E274" t="s">
         <v>803</v>
@@ -16508,7 +16509,7 @@
         <v>2656</v>
       </c>
       <c r="D275" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="E275" t="s">
         <v>806</v>
@@ -16525,7 +16526,7 @@
         <v>2656</v>
       </c>
       <c r="D276" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="E276" t="s">
         <v>809</v>
@@ -16542,7 +16543,7 @@
         <v>2642</v>
       </c>
       <c r="D277" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="E277" t="s">
         <v>812</v>
@@ -16559,7 +16560,7 @@
         <v>2656</v>
       </c>
       <c r="D278" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="E278" t="s">
         <v>815</v>
@@ -16576,7 +16577,7 @@
         <v>2656</v>
       </c>
       <c r="D279" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="E279" t="s">
         <v>818</v>
@@ -16593,7 +16594,7 @@
         <v>2631</v>
       </c>
       <c r="D280" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="E280" t="s">
         <v>821</v>
@@ -16610,7 +16611,7 @@
         <v>2656</v>
       </c>
       <c r="D281" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="E281" t="s">
         <v>824</v>
@@ -16627,7 +16628,7 @@
         <v>2656</v>
       </c>
       <c r="D282" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="E282" t="s">
         <v>827</v>
@@ -16644,7 +16645,7 @@
         <v>2656</v>
       </c>
       <c r="D283" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="E283" t="s">
         <v>830</v>
@@ -16661,7 +16662,7 @@
         <v>2631</v>
       </c>
       <c r="D284" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="E284" t="s">
         <v>833</v>
@@ -16678,7 +16679,7 @@
         <v>2662</v>
       </c>
       <c r="D285" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="E285" t="s">
         <v>836</v>
@@ -16695,7 +16696,7 @@
         <v>2631</v>
       </c>
       <c r="D286" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="E286" t="s">
         <v>839</v>
@@ -16712,7 +16713,7 @@
         <v>2631</v>
       </c>
       <c r="D287" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="E287" t="s">
         <v>842</v>
@@ -16732,7 +16733,7 @@
         <v>845</v>
       </c>
       <c r="D288" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="E288" t="s">
         <v>846</v>
@@ -16752,7 +16753,7 @@
         <v>845</v>
       </c>
       <c r="D289" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="E289" t="s">
         <v>849</v>
@@ -16769,7 +16770,7 @@
         <v>2664</v>
       </c>
       <c r="D290" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="E290" t="s">
         <v>852</v>
@@ -16789,7 +16790,7 @@
         <v>855</v>
       </c>
       <c r="D291" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="E291" t="s">
         <v>856</v>
@@ -16806,7 +16807,7 @@
         <v>2631</v>
       </c>
       <c r="D292" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="E292" t="s">
         <v>859</v>
@@ -16823,7 +16824,7 @@
         <v>2631</v>
       </c>
       <c r="D293" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="E293" t="s">
         <v>862</v>
@@ -16840,7 +16841,7 @@
         <v>2665</v>
       </c>
       <c r="D294" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="E294" t="s">
         <v>865</v>
@@ -16857,7 +16858,7 @@
         <v>2631</v>
       </c>
       <c r="D295" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E295" t="s">
         <v>868</v>
@@ -16874,7 +16875,7 @@
         <v>2631</v>
       </c>
       <c r="D296" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="E296" t="s">
         <v>871</v>
@@ -16891,7 +16892,7 @@
         <v>2631</v>
       </c>
       <c r="D297" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="E297" t="s">
         <v>874</v>
@@ -16908,7 +16909,7 @@
         <v>2631</v>
       </c>
       <c r="D298" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="E298" t="s">
         <v>877</v>
@@ -16925,7 +16926,7 @@
         <v>2656</v>
       </c>
       <c r="D299" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="E299" t="s">
         <v>880</v>
@@ -16942,7 +16943,7 @@
         <v>2631</v>
       </c>
       <c r="D300" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="E300" t="s">
         <v>883</v>
@@ -16959,7 +16960,7 @@
         <v>2631</v>
       </c>
       <c r="D301" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="E301" t="s">
         <v>886</v>
@@ -16976,7 +16977,7 @@
         <v>2631</v>
       </c>
       <c r="D302" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="E302" t="s">
         <v>889</v>
@@ -16993,7 +16994,7 @@
         <v>2631</v>
       </c>
       <c r="D303" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="E303" t="s">
         <v>892</v>
@@ -17010,7 +17011,7 @@
         <v>2666</v>
       </c>
       <c r="D304" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="E304" t="s">
         <v>895</v>
@@ -17027,7 +17028,7 @@
         <v>2631</v>
       </c>
       <c r="D305" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="E305" t="s">
         <v>898</v>
@@ -17044,7 +17045,7 @@
         <v>2631</v>
       </c>
       <c r="D306" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="E306" t="s">
         <v>901</v>
@@ -17061,7 +17062,7 @@
         <v>2631</v>
       </c>
       <c r="D307" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="E307" t="s">
         <v>904</v>
@@ -17078,7 +17079,7 @@
         <v>2631</v>
       </c>
       <c r="D308" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="E308" t="s">
         <v>907</v>
@@ -17095,7 +17096,7 @@
         <v>2631</v>
       </c>
       <c r="D309" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="E309" t="s">
         <v>910</v>
@@ -17112,7 +17113,7 @@
         <v>2631</v>
       </c>
       <c r="D310" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="E310" t="s">
         <v>913</v>
@@ -17129,7 +17130,7 @@
         <v>2631</v>
       </c>
       <c r="D311" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="E311" t="s">
         <v>916</v>
@@ -17146,7 +17147,7 @@
         <v>2631</v>
       </c>
       <c r="D312" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="E312" t="s">
         <v>919</v>
@@ -17163,7 +17164,7 @@
         <v>2631</v>
       </c>
       <c r="D313" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="E313" t="s">
         <v>922</v>
@@ -17180,7 +17181,7 @@
         <v>2641</v>
       </c>
       <c r="D314" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="E314" t="s">
         <v>925</v>
@@ -17197,7 +17198,7 @@
         <v>2653</v>
       </c>
       <c r="D315" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="E315" t="s">
         <v>928</v>
@@ -17214,7 +17215,7 @@
         <v>2660</v>
       </c>
       <c r="D316" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="E316" t="s">
         <v>931</v>
@@ -17231,7 +17232,7 @@
         <v>2641</v>
       </c>
       <c r="D317" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="E317" t="s">
         <v>934</v>
@@ -17248,7 +17249,7 @@
         <v>2641</v>
       </c>
       <c r="D318" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="E318" t="s">
         <v>937</v>
@@ -17265,7 +17266,7 @@
         <v>2631</v>
       </c>
       <c r="D319" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="E319" t="s">
         <v>940</v>
@@ -17282,7 +17283,7 @@
         <v>2631</v>
       </c>
       <c r="D320" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="E320" t="s">
         <v>943</v>
@@ -17299,7 +17300,7 @@
         <v>2631</v>
       </c>
       <c r="D321" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="E321" t="s">
         <v>946</v>
@@ -17316,7 +17317,7 @@
         <v>2640</v>
       </c>
       <c r="D322" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="E322" t="s">
         <v>949</v>
@@ -17333,7 +17334,7 @@
         <v>2665</v>
       </c>
       <c r="D323" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="E323" t="s">
         <v>952</v>
@@ -17350,7 +17351,7 @@
         <v>2665</v>
       </c>
       <c r="D324" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="E324" t="s">
         <v>955</v>
@@ -17367,7 +17368,7 @@
         <v>2631</v>
       </c>
       <c r="D325" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="E325" t="s">
         <v>958</v>
@@ -17384,7 +17385,7 @@
         <v>2631</v>
       </c>
       <c r="D326" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="E326" t="s">
         <v>961</v>
@@ -17401,7 +17402,7 @@
         <v>2631</v>
       </c>
       <c r="D327" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="E327" t="s">
         <v>964</v>
@@ -17418,7 +17419,7 @@
         <v>2631</v>
       </c>
       <c r="D328" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="E328" t="s">
         <v>967</v>
@@ -17435,7 +17436,7 @@
         <v>2631</v>
       </c>
       <c r="D329" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="E329" t="s">
         <v>970</v>
@@ -17452,7 +17453,7 @@
         <v>2631</v>
       </c>
       <c r="D330" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="E330" t="s">
         <v>973</v>
@@ -17469,7 +17470,7 @@
         <v>2631</v>
       </c>
       <c r="D331" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="E331" t="s">
         <v>975</v>
@@ -17486,7 +17487,7 @@
         <v>2640</v>
       </c>
       <c r="D332" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="E332" t="s">
         <v>978</v>
@@ -17503,7 +17504,7 @@
         <v>2631</v>
       </c>
       <c r="D333" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="E333" t="s">
         <v>981</v>
@@ -17520,7 +17521,7 @@
         <v>2631</v>
       </c>
       <c r="D334" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="E334" t="s">
         <v>984</v>
@@ -17537,7 +17538,7 @@
         <v>2631</v>
       </c>
       <c r="D335" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="E335" t="s">
         <v>987</v>
@@ -17554,7 +17555,7 @@
         <v>2631</v>
       </c>
       <c r="D336" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="E336" t="s">
         <v>987</v>
@@ -17571,7 +17572,7 @@
         <v>2631</v>
       </c>
       <c r="D337" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="E337" t="s">
         <v>992</v>
@@ -17588,7 +17589,7 @@
         <v>2631</v>
       </c>
       <c r="D338" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="E338" t="s">
         <v>995</v>
@@ -17605,7 +17606,7 @@
         <v>2631</v>
       </c>
       <c r="D339" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="E339" t="s">
         <v>998</v>
@@ -17622,7 +17623,7 @@
         <v>2631</v>
       </c>
       <c r="D340" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="E340" t="s">
         <v>1001</v>
@@ -17639,7 +17640,7 @@
         <v>2631</v>
       </c>
       <c r="D341" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="E341" t="s">
         <v>1004</v>
@@ -17656,7 +17657,7 @@
         <v>2631</v>
       </c>
       <c r="D342" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="E342" t="s">
         <v>1007</v>
@@ -17676,7 +17677,7 @@
         <v>1010</v>
       </c>
       <c r="D343" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="E343" t="s">
         <v>1011</v>
@@ -17696,7 +17697,7 @@
         <v>1010</v>
       </c>
       <c r="D344" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="E344" t="s">
         <v>1014</v>
@@ -17716,7 +17717,7 @@
         <v>1010</v>
       </c>
       <c r="D345" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="E345" t="s">
         <v>1017</v>
@@ -17736,7 +17737,7 @@
         <v>1010</v>
       </c>
       <c r="D346" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="E346" t="s">
         <v>1020</v>
@@ -17756,7 +17757,7 @@
         <v>1010</v>
       </c>
       <c r="D347" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="E347" t="s">
         <v>1023</v>
@@ -17776,7 +17777,7 @@
         <v>1010</v>
       </c>
       <c r="D348" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="E348" t="s">
         <v>1026</v>
@@ -17796,7 +17797,7 @@
         <v>1010</v>
       </c>
       <c r="D349" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="E349" t="s">
         <v>1029</v>
@@ -17816,7 +17817,7 @@
         <v>1010</v>
       </c>
       <c r="D350" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="E350" t="s">
         <v>1032</v>
@@ -17833,7 +17834,7 @@
         <v>2668</v>
       </c>
       <c r="D351" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="E351" t="s">
         <v>1035</v>
@@ -17850,7 +17851,7 @@
         <v>2643</v>
       </c>
       <c r="D352" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="E352" t="s">
         <v>1038</v>
@@ -17867,7 +17868,7 @@
         <v>2638</v>
       </c>
       <c r="D353" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="E353" t="s">
         <v>1041</v>
@@ -17884,7 +17885,7 @@
         <v>2638</v>
       </c>
       <c r="D354" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="E354" t="s">
         <v>1044</v>
@@ -17901,7 +17902,7 @@
         <v>2638</v>
       </c>
       <c r="D355" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="E355" t="s">
         <v>1047</v>
@@ -17918,7 +17919,7 @@
         <v>2631</v>
       </c>
       <c r="D356" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="E356" t="s">
         <v>1050</v>
@@ -17935,7 +17936,7 @@
         <v>2631</v>
       </c>
       <c r="D357" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="E357" t="s">
         <v>1053</v>
@@ -17952,7 +17953,7 @@
         <v>2631</v>
       </c>
       <c r="D358" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="E358" t="s">
         <v>1056</v>
@@ -17969,7 +17970,7 @@
         <v>2631</v>
       </c>
       <c r="D359" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="E359" t="s">
         <v>1059</v>
@@ -17986,7 +17987,7 @@
         <v>2641</v>
       </c>
       <c r="D360" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="E360" t="s">
         <v>1062</v>
@@ -18003,7 +18004,7 @@
         <v>2631</v>
       </c>
       <c r="D361" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="E361" t="s">
         <v>1065</v>
@@ -18020,7 +18021,7 @@
         <v>2631</v>
       </c>
       <c r="D362" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="E362" t="s">
         <v>1067</v>
@@ -18037,7 +18038,7 @@
         <v>2631</v>
       </c>
       <c r="D363" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="E363" t="s">
         <v>1070</v>
@@ -18054,7 +18055,7 @@
         <v>2631</v>
       </c>
       <c r="D364" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="E364" t="s">
         <v>363</v>
@@ -18071,7 +18072,7 @@
         <v>2631</v>
       </c>
       <c r="D365" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="E365" t="s">
         <v>1074</v>
@@ -18088,7 +18089,7 @@
         <v>2631</v>
       </c>
       <c r="D366" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="E366" t="s">
         <v>1077</v>
@@ -18105,7 +18106,7 @@
         <v>2667</v>
       </c>
       <c r="D367" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="E367" t="s">
         <v>1080</v>
@@ -18122,7 +18123,7 @@
         <v>2631</v>
       </c>
       <c r="D368" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="E368" t="s">
         <v>1083</v>
@@ -18139,7 +18140,7 @@
         <v>2631</v>
       </c>
       <c r="D369" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="E369" t="s">
         <v>1086</v>
@@ -18156,7 +18157,7 @@
         <v>2669</v>
       </c>
       <c r="D370" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="E370" t="s">
         <v>1089</v>
@@ -18173,7 +18174,7 @@
         <v>2631</v>
       </c>
       <c r="D371" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="E371" t="s">
         <v>1092</v>
@@ -18190,7 +18191,7 @@
         <v>2643</v>
       </c>
       <c r="D372" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="E372" t="s">
         <v>1095</v>
@@ -18207,7 +18208,7 @@
         <v>2631</v>
       </c>
       <c r="D373" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="E373" t="s">
         <v>1098</v>
@@ -18224,7 +18225,7 @@
         <v>2631</v>
       </c>
       <c r="D374" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="E374" t="s">
         <v>1101</v>
@@ -18241,7 +18242,7 @@
         <v>2631</v>
       </c>
       <c r="D375" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="E375" t="s">
         <v>1104</v>
@@ -18258,7 +18259,7 @@
         <v>2641</v>
       </c>
       <c r="D376" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="E376" t="s">
         <v>1107</v>
@@ -18275,7 +18276,7 @@
         <v>2641</v>
       </c>
       <c r="D377" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="E377" t="s">
         <v>1110</v>
@@ -18292,7 +18293,7 @@
         <v>2631</v>
       </c>
       <c r="D378" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="E378" t="s">
         <v>1113</v>
@@ -18309,7 +18310,7 @@
         <v>2631</v>
       </c>
       <c r="D379" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="E379" t="s">
         <v>1116</v>
@@ -18326,7 +18327,7 @@
         <v>2642</v>
       </c>
       <c r="D380" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="E380" t="s">
         <v>1119</v>
@@ -18343,7 +18344,7 @@
         <v>2670</v>
       </c>
       <c r="D381" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="E381" t="s">
         <v>1122</v>
@@ -18360,7 +18361,7 @@
         <v>2671</v>
       </c>
       <c r="D382" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="E382" t="s">
         <v>1125</v>
@@ -18377,7 +18378,7 @@
         <v>2672</v>
       </c>
       <c r="D383" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="E383" t="s">
         <v>1128</v>
@@ -18394,7 +18395,7 @@
         <v>2673</v>
       </c>
       <c r="D384" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="E384" t="s">
         <v>1131</v>
@@ -18411,7 +18412,7 @@
         <v>2673</v>
       </c>
       <c r="D385" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="E385" t="s">
         <v>1134</v>
@@ -18428,7 +18429,7 @@
         <v>2673</v>
       </c>
       <c r="D386" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="E386" t="s">
         <v>1137</v>
@@ -18445,7 +18446,7 @@
         <v>2673</v>
       </c>
       <c r="D387" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="E387" t="s">
         <v>1140</v>
@@ -18462,7 +18463,7 @@
         <v>2673</v>
       </c>
       <c r="D388" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="E388" t="s">
         <v>1143</v>
@@ -18479,7 +18480,7 @@
         <v>2673</v>
       </c>
       <c r="D389" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="E389" t="s">
         <v>1146</v>
@@ -18496,7 +18497,7 @@
         <v>2642</v>
       </c>
       <c r="D390" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="E390" t="s">
         <v>1149</v>
@@ -18513,7 +18514,7 @@
         <v>2642</v>
       </c>
       <c r="D391" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="E391" t="s">
         <v>1152</v>
@@ -18530,7 +18531,7 @@
         <v>2631</v>
       </c>
       <c r="D392" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="E392" t="s">
         <v>1155</v>
@@ -18547,7 +18548,7 @@
         <v>2631</v>
       </c>
       <c r="D393" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="E393" t="s">
         <v>1158</v>
@@ -18564,7 +18565,7 @@
         <v>2638</v>
       </c>
       <c r="D394" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="E394" t="s">
         <v>1161</v>
@@ -18581,7 +18582,7 @@
         <v>2642</v>
       </c>
       <c r="D395" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="E395" t="s">
         <v>1164</v>
@@ -18598,7 +18599,7 @@
         <v>2631</v>
       </c>
       <c r="D396" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="E396" t="s">
         <v>1167</v>
@@ -18615,7 +18616,7 @@
         <v>2631</v>
       </c>
       <c r="D397" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="E397" t="s">
         <v>1170</v>
@@ -18632,7 +18633,7 @@
         <v>2631</v>
       </c>
       <c r="D398" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="E398" t="s">
         <v>1173</v>
@@ -18649,7 +18650,7 @@
         <v>2631</v>
       </c>
       <c r="D399" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="E399" t="s">
         <v>1176</v>
@@ -18666,7 +18667,7 @@
         <v>2631</v>
       </c>
       <c r="D400" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="E400" t="s">
         <v>1179</v>
@@ -18683,7 +18684,7 @@
         <v>2631</v>
       </c>
       <c r="D401" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="E401" t="s">
         <v>1182</v>
@@ -18700,7 +18701,7 @@
         <v>2631</v>
       </c>
       <c r="D402" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="E402" t="s">
         <v>1185</v>
@@ -18717,7 +18718,7 @@
         <v>2643</v>
       </c>
       <c r="D403" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="E403" t="s">
         <v>1188</v>
@@ -18734,7 +18735,7 @@
         <v>2631</v>
       </c>
       <c r="D404" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="E404" t="s">
         <v>1191</v>
@@ -18751,7 +18752,7 @@
         <v>2656</v>
       </c>
       <c r="D405" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="E405" t="s">
         <v>1194</v>
@@ -18768,7 +18769,7 @@
         <v>2656</v>
       </c>
       <c r="D406" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="E406" t="s">
         <v>1197</v>
@@ -18785,7 +18786,7 @@
         <v>2656</v>
       </c>
       <c r="D407" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="E407" t="s">
         <v>1200</v>
@@ -18802,7 +18803,7 @@
         <v>2631</v>
       </c>
       <c r="D408" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="E408" t="s">
         <v>1203</v>
@@ -18819,7 +18820,7 @@
         <v>2631</v>
       </c>
       <c r="D409" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="E409" t="s">
         <v>1206</v>
@@ -18836,7 +18837,7 @@
         <v>2631</v>
       </c>
       <c r="D410" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="E410" t="s">
         <v>1209</v>
@@ -18853,7 +18854,7 @@
         <v>2631</v>
       </c>
       <c r="D411" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="E411" t="s">
         <v>1212</v>
@@ -18870,7 +18871,7 @@
         <v>2634</v>
       </c>
       <c r="D412" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="E412" t="s">
         <v>1215</v>
@@ -18887,7 +18888,7 @@
         <v>2634</v>
       </c>
       <c r="D413" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="E413" t="s">
         <v>1218</v>
@@ -18904,7 +18905,7 @@
         <v>2634</v>
       </c>
       <c r="D414" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="E414" t="s">
         <v>1221</v>
@@ -18921,7 +18922,7 @@
         <v>2631</v>
       </c>
       <c r="D415" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="E415" t="s">
         <v>1224</v>
@@ -18938,7 +18939,7 @@
         <v>2631</v>
       </c>
       <c r="D416" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="E416" t="s">
         <v>1227</v>
@@ -18955,7 +18956,7 @@
         <v>2631</v>
       </c>
       <c r="D417" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="E417" t="s">
         <v>1230</v>
@@ -18972,7 +18973,7 @@
         <v>2658</v>
       </c>
       <c r="D418" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="E418" t="s">
         <v>1233</v>
@@ -18989,7 +18990,7 @@
         <v>2631</v>
       </c>
       <c r="D419" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="E419" t="s">
         <v>1236</v>
@@ -19006,7 +19007,7 @@
         <v>2631</v>
       </c>
       <c r="D420" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="E420" t="s">
         <v>1239</v>
@@ -19023,7 +19024,7 @@
         <v>2650</v>
       </c>
       <c r="D421" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="E421" t="s">
         <v>1239</v>
@@ -19040,7 +19041,7 @@
         <v>2650</v>
       </c>
       <c r="D422" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="E422" t="s">
         <v>1244</v>
@@ -19057,7 +19058,7 @@
         <v>2650</v>
       </c>
       <c r="D423" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="E423" t="s">
         <v>1247</v>
@@ -19074,7 +19075,7 @@
         <v>2650</v>
       </c>
       <c r="D424" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="E424" t="s">
         <v>1250</v>
@@ -19091,7 +19092,7 @@
         <v>2650</v>
       </c>
       <c r="D425" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="E425" t="s">
         <v>1253</v>
@@ -19108,7 +19109,7 @@
         <v>2631</v>
       </c>
       <c r="D426" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="E426" t="s">
         <v>1256</v>
@@ -19125,7 +19126,7 @@
         <v>2631</v>
       </c>
       <c r="D427" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="E427" t="s">
         <v>1259</v>
@@ -19142,7 +19143,7 @@
         <v>2631</v>
       </c>
       <c r="D428" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="E428" t="s">
         <v>1262</v>
@@ -19159,7 +19160,7 @@
         <v>2674</v>
       </c>
       <c r="D429" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="E429" t="s">
         <v>1265</v>
@@ -19176,7 +19177,7 @@
         <v>2631</v>
       </c>
       <c r="D430" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="E430" t="s">
         <v>1268</v>
@@ -19193,7 +19194,7 @@
         <v>2631</v>
       </c>
       <c r="D431" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="E431" t="s">
         <v>1271</v>
@@ -19210,7 +19211,7 @@
         <v>2661</v>
       </c>
       <c r="D432" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="E432" t="s">
         <v>1271</v>
@@ -19227,7 +19228,7 @@
         <v>2661</v>
       </c>
       <c r="D433" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="E433" t="s">
         <v>1271</v>
@@ -19244,7 +19245,7 @@
         <v>2661</v>
       </c>
       <c r="D434" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="E434" t="s">
         <v>1277</v>
@@ -19261,7 +19262,7 @@
         <v>2661</v>
       </c>
       <c r="D435" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="E435" t="s">
         <v>1280</v>
@@ -19278,7 +19279,7 @@
         <v>2661</v>
       </c>
       <c r="D436" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="E436" t="s">
         <v>1283</v>
@@ -19295,7 +19296,7 @@
         <v>2661</v>
       </c>
       <c r="D437" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="E437" t="s">
         <v>1286</v>
@@ -19312,7 +19313,7 @@
         <v>2661</v>
       </c>
       <c r="D438" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="E438" t="s">
         <v>1289</v>
@@ -19329,7 +19330,7 @@
         <v>2661</v>
       </c>
       <c r="D439" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="E439" t="s">
         <v>1292</v>
@@ -19346,7 +19347,7 @@
         <v>2661</v>
       </c>
       <c r="D440" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="E440" t="s">
         <v>1277</v>
@@ -19363,7 +19364,7 @@
         <v>2653</v>
       </c>
       <c r="D441" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="E441" t="s">
         <v>1297</v>
@@ -19380,7 +19381,7 @@
         <v>2653</v>
       </c>
       <c r="D442" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="E442" t="s">
         <v>1300</v>
@@ -19397,7 +19398,7 @@
         <v>2643</v>
       </c>
       <c r="D443" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="E443" t="s">
         <v>1303</v>
@@ -19414,7 +19415,7 @@
         <v>2631</v>
       </c>
       <c r="D444" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="E444" t="s">
         <v>1306</v>
@@ -19431,7 +19432,7 @@
         <v>2631</v>
       </c>
       <c r="D445" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="E445" t="s">
         <v>1309</v>
@@ -19448,7 +19449,7 @@
         <v>2663</v>
       </c>
       <c r="D446" t="s">
-        <v>3139</v>
+        <v>3576</v>
       </c>
       <c r="E446" t="s">
         <v>1312</v>
@@ -19465,7 +19466,7 @@
         <v>2631</v>
       </c>
       <c r="D447" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="E447" t="s">
         <v>1315</v>
@@ -19482,7 +19483,7 @@
         <v>2650</v>
       </c>
       <c r="D448" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="E448" t="s">
         <v>1315</v>
@@ -19499,7 +19500,7 @@
         <v>2631</v>
       </c>
       <c r="D449" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="E449" t="s">
         <v>1320</v>
@@ -19516,7 +19517,7 @@
         <v>2675</v>
       </c>
       <c r="D450" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="E450" t="s">
         <v>1323</v>
@@ -19533,7 +19534,7 @@
         <v>2675</v>
       </c>
       <c r="D451" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="E451" t="s">
         <v>1326</v>
@@ -19550,7 +19551,7 @@
         <v>2676</v>
       </c>
       <c r="D452" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="E452" t="s">
         <v>1329</v>
@@ -19567,7 +19568,7 @@
         <v>2631</v>
       </c>
       <c r="D453" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="E453" t="s">
         <v>1332</v>
@@ -19584,7 +19585,7 @@
         <v>2631</v>
       </c>
       <c r="D454" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="E454" t="s">
         <v>1335</v>
@@ -19601,7 +19602,7 @@
         <v>2631</v>
       </c>
       <c r="D455" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="E455" t="s">
         <v>1338</v>
@@ -19618,13 +19619,13 @@
         <v>2631</v>
       </c>
       <c r="D456" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="E456" t="s">
         <v>1341</v>
       </c>
       <c r="F456" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -19635,7 +19636,7 @@
         <v>2631</v>
       </c>
       <c r="D457" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
       <c r="E457" t="s">
         <v>1343</v>
@@ -19652,7 +19653,7 @@
         <v>2631</v>
       </c>
       <c r="D458" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="E458" t="s">
         <v>1346</v>
@@ -19669,7 +19670,7 @@
         <v>2631</v>
       </c>
       <c r="D459" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="E459" t="s">
         <v>1349</v>
@@ -19686,7 +19687,7 @@
         <v>2631</v>
       </c>
       <c r="D460" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="E460" t="s">
         <v>1352</v>
@@ -19703,7 +19704,7 @@
         <v>2631</v>
       </c>
       <c r="D461" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="E461" t="s">
         <v>1355</v>
@@ -19720,7 +19721,7 @@
         <v>2631</v>
       </c>
       <c r="D462" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="E462" t="s">
         <v>1358</v>
@@ -19737,7 +19738,7 @@
         <v>2650</v>
       </c>
       <c r="D463" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="E463" t="s">
         <v>1361</v>
@@ -19754,7 +19755,7 @@
         <v>2631</v>
       </c>
       <c r="D464" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="E464" t="s">
         <v>1364</v>
@@ -19771,7 +19772,7 @@
         <v>2631</v>
       </c>
       <c r="D465" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="E465" t="s">
         <v>1367</v>
@@ -19788,7 +19789,7 @@
         <v>2631</v>
       </c>
       <c r="D466" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="E466" t="s">
         <v>1370</v>
@@ -19805,7 +19806,7 @@
         <v>2631</v>
       </c>
       <c r="D467" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="E467" t="s">
         <v>1373</v>
@@ -19822,7 +19823,7 @@
         <v>2631</v>
       </c>
       <c r="D468" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="E468" t="s">
         <v>1376</v>
@@ -19839,7 +19840,7 @@
         <v>2631</v>
       </c>
       <c r="D469" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="E469" t="s">
         <v>1379</v>
@@ -19856,7 +19857,7 @@
         <v>2631</v>
       </c>
       <c r="D470" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="E470" t="s">
         <v>1382</v>
@@ -19873,7 +19874,7 @@
         <v>2631</v>
       </c>
       <c r="D471" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="E471" t="s">
         <v>1385</v>
@@ -19890,7 +19891,7 @@
         <v>2631</v>
       </c>
       <c r="D472" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="E472" t="s">
         <v>1388</v>
@@ -19907,7 +19908,7 @@
         <v>2631</v>
       </c>
       <c r="D473" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="E473" t="s">
         <v>1391</v>
@@ -19924,7 +19925,7 @@
         <v>2631</v>
       </c>
       <c r="D474" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="E474" t="s">
         <v>1394</v>
@@ -19941,7 +19942,7 @@
         <v>2631</v>
       </c>
       <c r="D475" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="E475" t="s">
         <v>1397</v>
@@ -19958,7 +19959,7 @@
         <v>2631</v>
       </c>
       <c r="D476" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="E476" t="s">
         <v>1400</v>
@@ -19975,7 +19976,7 @@
         <v>2631</v>
       </c>
       <c r="D477" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="E477" t="s">
         <v>1403</v>
@@ -19992,7 +19993,7 @@
         <v>2656</v>
       </c>
       <c r="D478" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="E478" t="s">
         <v>1406</v>
@@ -20009,7 +20010,7 @@
         <v>2656</v>
       </c>
       <c r="D479" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="E479" t="s">
         <v>1409</v>
@@ -20026,7 +20027,7 @@
         <v>2677</v>
       </c>
       <c r="D480" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="E480" t="s">
         <v>1412</v>
@@ -20043,7 +20044,7 @@
         <v>2631</v>
       </c>
       <c r="D481" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="E481" t="s">
         <v>1415</v>
@@ -20060,7 +20061,7 @@
         <v>2631</v>
       </c>
       <c r="D482" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="E482" t="s">
         <v>1418</v>
@@ -20077,7 +20078,7 @@
         <v>2631</v>
       </c>
       <c r="D483" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="E483" t="s">
         <v>1421</v>
@@ -20094,7 +20095,7 @@
         <v>2631</v>
       </c>
       <c r="D484" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="E484" t="s">
         <v>1424</v>
@@ -20111,7 +20112,7 @@
         <v>2631</v>
       </c>
       <c r="D485" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="E485" t="s">
         <v>1427</v>
@@ -20128,7 +20129,7 @@
         <v>2631</v>
       </c>
       <c r="D486" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="E486" t="s">
         <v>1430</v>
@@ -20145,7 +20146,7 @@
         <v>2631</v>
       </c>
       <c r="D487" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="E487" t="s">
         <v>1433</v>
@@ -20162,7 +20163,7 @@
         <v>2631</v>
       </c>
       <c r="D488" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="E488" t="s">
         <v>1436</v>
@@ -20179,7 +20180,7 @@
         <v>2631</v>
       </c>
       <c r="D489" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="E489" t="s">
         <v>1439</v>
@@ -20196,7 +20197,7 @@
         <v>2631</v>
       </c>
       <c r="D490" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="E490" t="s">
         <v>1442</v>
@@ -20213,7 +20214,7 @@
         <v>2631</v>
       </c>
       <c r="D491" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="E491" t="s">
         <v>1445</v>
@@ -20230,7 +20231,7 @@
         <v>2660</v>
       </c>
       <c r="D492" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="E492" t="s">
         <v>1448</v>
@@ -20250,7 +20251,7 @@
         <v>366</v>
       </c>
       <c r="D493" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="E493" t="s">
         <v>1451</v>
@@ -20270,7 +20271,7 @@
         <v>366</v>
       </c>
       <c r="D494" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="E494" t="s">
         <v>1454</v>
@@ -20287,7 +20288,7 @@
         <v>2631</v>
       </c>
       <c r="D495" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="E495" t="s">
         <v>1457</v>
@@ -20304,7 +20305,7 @@
         <v>2656</v>
       </c>
       <c r="D496" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="E496" t="s">
         <v>1460</v>
@@ -20321,7 +20322,7 @@
         <v>2656</v>
       </c>
       <c r="D497" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="E497" t="s">
         <v>1463</v>
@@ -20338,7 +20339,7 @@
         <v>2641</v>
       </c>
       <c r="D498" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="E498" t="s">
         <v>1466</v>
@@ -20355,7 +20356,7 @@
         <v>2648</v>
       </c>
       <c r="D499" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="E499" t="s">
         <v>1469</v>
@@ -20372,7 +20373,7 @@
         <v>2640</v>
       </c>
       <c r="D500" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="E500" t="s">
         <v>1472</v>
@@ -20389,7 +20390,7 @@
         <v>2631</v>
       </c>
       <c r="D501" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="E501" t="s">
         <v>1475</v>
@@ -20406,7 +20407,7 @@
         <v>2631</v>
       </c>
       <c r="D502" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="E502" t="s">
         <v>1478</v>
@@ -20426,7 +20427,7 @@
         <v>1481</v>
       </c>
       <c r="D503" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="E503" t="s">
         <v>1482</v>
@@ -20443,7 +20444,7 @@
         <v>2631</v>
       </c>
       <c r="D504" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="E504" t="s">
         <v>1485</v>
@@ -20460,7 +20461,7 @@
         <v>2631</v>
       </c>
       <c r="D505" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="E505" t="s">
         <v>1488</v>
@@ -20477,7 +20478,7 @@
         <v>2631</v>
       </c>
       <c r="D506" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="E506" t="s">
         <v>363</v>
@@ -20494,7 +20495,7 @@
         <v>2631</v>
       </c>
       <c r="D507" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="E507" t="s">
         <v>1492</v>
@@ -20511,7 +20512,7 @@
         <v>2631</v>
       </c>
       <c r="D508" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="E508" t="s">
         <v>1495</v>
@@ -20528,7 +20529,7 @@
         <v>2631</v>
       </c>
       <c r="D509" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="E509" t="s">
         <v>1498</v>
@@ -20545,7 +20546,7 @@
         <v>2631</v>
       </c>
       <c r="D510" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="E510" t="s">
         <v>1501</v>
@@ -20562,7 +20563,7 @@
         <v>2677</v>
       </c>
       <c r="D511" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="E511" t="s">
         <v>1504</v>
@@ -20579,7 +20580,7 @@
         <v>2677</v>
       </c>
       <c r="D512" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="E512" t="s">
         <v>1507</v>
@@ -20596,7 +20597,7 @@
         <v>2677</v>
       </c>
       <c r="D513" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="E513" t="s">
         <v>1510</v>
@@ -20613,7 +20614,7 @@
         <v>2631</v>
       </c>
       <c r="D514" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="E514" t="s">
         <v>1513</v>
@@ -20630,7 +20631,7 @@
         <v>2631</v>
       </c>
       <c r="D515" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="E515" t="s">
         <v>1516</v>
@@ -20647,7 +20648,7 @@
         <v>2656</v>
       </c>
       <c r="D516" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="E516" t="s">
         <v>1519</v>
@@ -20664,7 +20665,7 @@
         <v>2631</v>
       </c>
       <c r="D517" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="E517" t="s">
         <v>1522</v>
@@ -20681,7 +20682,7 @@
         <v>2631</v>
       </c>
       <c r="D518" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="E518" t="s">
         <v>1525</v>
@@ -20698,7 +20699,7 @@
         <v>2631</v>
       </c>
       <c r="D519" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="E519" t="s">
         <v>1528</v>
@@ -20715,7 +20716,7 @@
         <v>2631</v>
       </c>
       <c r="D520" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="E520" t="s">
         <v>1173</v>
@@ -20732,7 +20733,7 @@
         <v>2631</v>
       </c>
       <c r="D521" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="E521" t="s">
         <v>1533</v>
@@ -20749,7 +20750,7 @@
         <v>2631</v>
       </c>
       <c r="D522" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="E522" t="s">
         <v>1536</v>
@@ -20766,7 +20767,7 @@
         <v>2642</v>
       </c>
       <c r="D523" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="E523" t="s">
         <v>1539</v>
@@ -20783,7 +20784,7 @@
         <v>2631</v>
       </c>
       <c r="D524" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="E524" t="s">
         <v>1542</v>
@@ -20800,7 +20801,7 @@
         <v>2631</v>
       </c>
       <c r="D525" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="E525" t="s">
         <v>1545</v>
@@ -20817,7 +20818,7 @@
         <v>2631</v>
       </c>
       <c r="D526" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="E526" t="s">
         <v>1548</v>
@@ -20834,7 +20835,7 @@
         <v>2631</v>
       </c>
       <c r="D527" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="E527" t="s">
         <v>1551</v>
@@ -20851,7 +20852,7 @@
         <v>2631</v>
       </c>
       <c r="D528" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="E528" t="s">
         <v>1554</v>
@@ -20868,7 +20869,7 @@
         <v>2642</v>
       </c>
       <c r="D529" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="E529" t="s">
         <v>1557</v>
@@ -20885,7 +20886,7 @@
         <v>2631</v>
       </c>
       <c r="D530" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="E530" t="s">
         <v>1560</v>
@@ -20902,7 +20903,7 @@
         <v>2631</v>
       </c>
       <c r="D531" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="E531" t="s">
         <v>1563</v>
@@ -20919,7 +20920,7 @@
         <v>2678</v>
       </c>
       <c r="D532" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="E532" t="s">
         <v>1566</v>
@@ -20939,7 +20940,7 @@
         <v>1569</v>
       </c>
       <c r="D533" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="E533" t="s">
         <v>1570</v>
@@ -20959,7 +20960,7 @@
         <v>1569</v>
       </c>
       <c r="D534" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="E534" t="s">
         <v>1573</v>
@@ -20979,7 +20980,7 @@
         <v>1569</v>
       </c>
       <c r="D535" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="E535" t="s">
         <v>1576</v>
@@ -20999,7 +21000,7 @@
         <v>1569</v>
       </c>
       <c r="D536" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="E536" t="s">
         <v>1579</v>
@@ -21019,7 +21020,7 @@
         <v>1569</v>
       </c>
       <c r="D537" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="E537" t="s">
         <v>1582</v>
@@ -21039,7 +21040,7 @@
         <v>1569</v>
       </c>
       <c r="D538" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="E538" t="s">
         <v>1585</v>
@@ -21059,7 +21060,7 @@
         <v>1569</v>
       </c>
       <c r="D539" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="E539" t="s">
         <v>1588</v>
@@ -21079,7 +21080,7 @@
         <v>1569</v>
       </c>
       <c r="D540" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="E540" t="s">
         <v>1591</v>
@@ -21099,7 +21100,7 @@
         <v>1569</v>
       </c>
       <c r="D541" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="E541" t="s">
         <v>1594</v>
@@ -21119,7 +21120,7 @@
         <v>1569</v>
       </c>
       <c r="D542" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="E542" t="s">
         <v>1597</v>
@@ -21139,7 +21140,7 @@
         <v>1569</v>
       </c>
       <c r="D543" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="E543" t="s">
         <v>1600</v>
@@ -21159,7 +21160,7 @@
         <v>1569</v>
       </c>
       <c r="D544" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="E544" t="s">
         <v>1603</v>
@@ -21179,7 +21180,7 @@
         <v>1569</v>
       </c>
       <c r="D545" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="E545" t="s">
         <v>1606</v>
@@ -21199,7 +21200,7 @@
         <v>1569</v>
       </c>
       <c r="D546" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="E546" t="s">
         <v>1609</v>
@@ -21219,7 +21220,7 @@
         <v>1569</v>
       </c>
       <c r="D547" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="E547" t="s">
         <v>1612</v>
@@ -21239,7 +21240,7 @@
         <v>1569</v>
       </c>
       <c r="D548" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="E548" t="s">
         <v>1615</v>
@@ -21259,7 +21260,7 @@
         <v>1618</v>
       </c>
       <c r="D549" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="E549" t="s">
         <v>1619</v>
@@ -21279,7 +21280,7 @@
         <v>1569</v>
       </c>
       <c r="D550" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="E550" t="s">
         <v>1622</v>
@@ -21299,7 +21300,7 @@
         <v>1569</v>
       </c>
       <c r="D551" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="E551" t="s">
         <v>1625</v>
@@ -21319,7 +21320,7 @@
         <v>1569</v>
       </c>
       <c r="D552" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="E552" t="s">
         <v>1628</v>
@@ -21336,7 +21337,7 @@
         <v>2631</v>
       </c>
       <c r="D553" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="E553" t="s">
         <v>1631</v>
@@ -21353,7 +21354,7 @@
         <v>2631</v>
       </c>
       <c r="D554" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="E554" t="s">
         <v>1634</v>
@@ -21370,7 +21371,7 @@
         <v>2631</v>
       </c>
       <c r="D555" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="E555" t="s">
         <v>1637</v>
@@ -21387,7 +21388,7 @@
         <v>2631</v>
       </c>
       <c r="D556" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="E556" t="s">
         <v>1640</v>
@@ -21404,7 +21405,7 @@
         <v>2631</v>
       </c>
       <c r="D557" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="E557" t="s">
         <v>1643</v>
@@ -21421,7 +21422,7 @@
         <v>2679</v>
       </c>
       <c r="D558" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="E558" t="s">
         <v>1646</v>
@@ -21438,7 +21439,7 @@
         <v>2679</v>
       </c>
       <c r="D559" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="E559" t="s">
         <v>1649</v>
@@ -21455,7 +21456,7 @@
         <v>2631</v>
       </c>
       <c r="D560" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="E560" t="s">
         <v>1652</v>
@@ -21472,7 +21473,7 @@
         <v>2663</v>
       </c>
       <c r="D561" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="E561" t="s">
         <v>1655</v>
@@ -21489,7 +21490,7 @@
         <v>2663</v>
       </c>
       <c r="D562" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="E562" t="s">
         <v>1658</v>
@@ -21506,7 +21507,7 @@
         <v>2631</v>
       </c>
       <c r="D563" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="E563" t="s">
         <v>1661</v>
@@ -21523,7 +21524,7 @@
         <v>2631</v>
       </c>
       <c r="D564" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="E564" t="s">
         <v>1664</v>
@@ -21540,7 +21541,7 @@
         <v>2631</v>
       </c>
       <c r="D565" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="E565" t="s">
         <v>1667</v>
@@ -21557,7 +21558,7 @@
         <v>2631</v>
       </c>
       <c r="D566" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="E566" t="s">
         <v>1670</v>
@@ -21591,7 +21592,7 @@
         <v>2641</v>
       </c>
       <c r="D568" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="E568" t="s">
         <v>1676</v>
@@ -21608,7 +21609,7 @@
         <v>2641</v>
       </c>
       <c r="D569" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="E569" t="s">
         <v>1679</v>
@@ -21625,7 +21626,7 @@
         <v>2680</v>
       </c>
       <c r="D570" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="E570" t="s">
         <v>1682</v>
@@ -21642,7 +21643,7 @@
         <v>2640</v>
       </c>
       <c r="D571" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="E571" t="s">
         <v>1685</v>
@@ -21659,7 +21660,7 @@
         <v>2640</v>
       </c>
       <c r="D572" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="E572" t="s">
         <v>1688</v>
@@ -21693,7 +21694,7 @@
         <v>2640</v>
       </c>
       <c r="D574" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="E574" t="s">
         <v>1693</v>
@@ -21710,7 +21711,7 @@
         <v>2640</v>
       </c>
       <c r="D575" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="E575" t="s">
         <v>1696</v>
@@ -21727,7 +21728,7 @@
         <v>2680</v>
       </c>
       <c r="D576" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="E576" t="s">
         <v>1699</v>
@@ -21744,7 +21745,7 @@
         <v>2640</v>
       </c>
       <c r="D577" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="E577" t="s">
         <v>1702</v>
@@ -21761,7 +21762,7 @@
         <v>2640</v>
       </c>
       <c r="D578" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="E578" t="s">
         <v>1705</v>
@@ -21778,7 +21779,7 @@
         <v>2640</v>
       </c>
       <c r="D579" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="E579" t="s">
         <v>1708</v>
@@ -21795,7 +21796,7 @@
         <v>2640</v>
       </c>
       <c r="D580" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="E580" t="s">
         <v>1711</v>
@@ -21812,7 +21813,7 @@
         <v>2640</v>
       </c>
       <c r="D581" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="E581" t="s">
         <v>1714</v>
@@ -21829,7 +21830,7 @@
         <v>2640</v>
       </c>
       <c r="D582" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="E582" t="s">
         <v>1717</v>
@@ -21846,7 +21847,7 @@
         <v>2640</v>
       </c>
       <c r="D583" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="E583" t="s">
         <v>1720</v>
@@ -21863,7 +21864,7 @@
         <v>2640</v>
       </c>
       <c r="D584" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="E584" t="s">
         <v>1723</v>
@@ -21880,7 +21881,7 @@
         <v>2658</v>
       </c>
       <c r="D585" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="E585" t="s">
         <v>1726</v>
@@ -21897,7 +21898,7 @@
         <v>2640</v>
       </c>
       <c r="D586" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="E586" t="s">
         <v>1729</v>
@@ -21917,7 +21918,7 @@
         <v>1732</v>
       </c>
       <c r="D587" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="E587" t="s">
         <v>1733</v>
@@ -21957,7 +21958,7 @@
         <v>1732</v>
       </c>
       <c r="D589" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="E589" t="s">
         <v>1739</v>
@@ -21997,7 +21998,7 @@
         <v>1732</v>
       </c>
       <c r="D591" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="E591" t="s">
         <v>1743</v>
@@ -22037,7 +22038,7 @@
         <v>1732</v>
       </c>
       <c r="D593" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="E593" t="s">
         <v>1747</v>
@@ -22054,7 +22055,7 @@
         <v>2640</v>
       </c>
       <c r="D594" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="E594" t="s">
         <v>1750</v>
@@ -22071,7 +22072,7 @@
         <v>2640</v>
       </c>
       <c r="D595" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="E595" t="s">
         <v>1753</v>
@@ -22088,7 +22089,7 @@
         <v>2640</v>
       </c>
       <c r="D596" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="E596" t="s">
         <v>1756</v>
@@ -22105,7 +22106,7 @@
         <v>2640</v>
       </c>
       <c r="D597" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="E597" t="s">
         <v>1759</v>
@@ -22122,7 +22123,7 @@
         <v>2658</v>
       </c>
       <c r="D598" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="E598" t="s">
         <v>1762</v>
@@ -22139,7 +22140,7 @@
         <v>2642</v>
       </c>
       <c r="D599" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="E599" t="s">
         <v>1765</v>
@@ -22156,7 +22157,7 @@
         <v>2642</v>
       </c>
       <c r="D600" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="E600" t="s">
         <v>1768</v>
@@ -22173,7 +22174,7 @@
         <v>2640</v>
       </c>
       <c r="D601" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="E601" t="s">
         <v>1771</v>
@@ -22190,7 +22191,7 @@
         <v>2674</v>
       </c>
       <c r="D602" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="E602" t="s">
         <v>1774</v>
@@ -22207,7 +22208,7 @@
         <v>2674</v>
       </c>
       <c r="D603" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="E603" t="s">
         <v>1777</v>
@@ -22224,7 +22225,7 @@
         <v>2658</v>
       </c>
       <c r="D604" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="E604" t="s">
         <v>1780</v>
@@ -22241,7 +22242,7 @@
         <v>2658</v>
       </c>
       <c r="D605" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="E605" t="s">
         <v>1783</v>
@@ -22258,7 +22259,7 @@
         <v>2658</v>
       </c>
       <c r="D606" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="E606" t="s">
         <v>1786</v>
@@ -22275,7 +22276,7 @@
         <v>2658</v>
       </c>
       <c r="D607" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="E607" t="s">
         <v>1789</v>
@@ -22292,7 +22293,7 @@
         <v>2658</v>
       </c>
       <c r="D608" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="E608" t="s">
         <v>1792</v>
@@ -22309,7 +22310,7 @@
         <v>2658</v>
       </c>
       <c r="D609" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="E609" t="s">
         <v>1795</v>
@@ -22326,7 +22327,7 @@
         <v>2656</v>
       </c>
       <c r="D610" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="E610" t="s">
         <v>1798</v>
@@ -22343,7 +22344,7 @@
         <v>2681</v>
       </c>
       <c r="D611" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="E611" t="s">
         <v>1801</v>
@@ -22360,7 +22361,7 @@
         <v>2656</v>
       </c>
       <c r="D612" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="E612" t="s">
         <v>1804</v>
@@ -22377,7 +22378,7 @@
         <v>2656</v>
       </c>
       <c r="D613" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="E613" t="s">
         <v>1807</v>
@@ -22394,7 +22395,7 @@
         <v>2656</v>
       </c>
       <c r="D614" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="E614" t="s">
         <v>1810</v>
@@ -22411,7 +22412,7 @@
         <v>2656</v>
       </c>
       <c r="D615" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="E615" t="s">
         <v>1813</v>
@@ -22428,7 +22429,7 @@
         <v>2656</v>
       </c>
       <c r="D616" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="E616" t="s">
         <v>1816</v>
@@ -22445,7 +22446,7 @@
         <v>2656</v>
       </c>
       <c r="D617" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="E617" t="s">
         <v>1819</v>
@@ -22462,7 +22463,7 @@
         <v>2656</v>
       </c>
       <c r="D618" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="E618" t="s">
         <v>1822</v>
@@ -22479,7 +22480,7 @@
         <v>2682</v>
       </c>
       <c r="D619" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="E619" t="s">
         <v>1825</v>
@@ -22496,7 +22497,7 @@
         <v>2682</v>
       </c>
       <c r="D620" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="E620" t="s">
         <v>1828</v>
@@ -22513,7 +22514,7 @@
         <v>2682</v>
       </c>
       <c r="D621" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="E621" t="s">
         <v>1831</v>
@@ -22530,7 +22531,7 @@
         <v>2682</v>
       </c>
       <c r="D622" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="E622" t="s">
         <v>1834</v>
@@ -22547,7 +22548,7 @@
         <v>2656</v>
       </c>
       <c r="D623" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="E623" t="s">
         <v>1837</v>
@@ -22564,7 +22565,7 @@
         <v>2656</v>
       </c>
       <c r="D624" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="E624" t="s">
         <v>1840</v>
@@ -22581,7 +22582,7 @@
         <v>2652</v>
       </c>
       <c r="D625" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="E625" t="s">
         <v>1843</v>
@@ -22598,7 +22599,7 @@
         <v>2656</v>
       </c>
       <c r="D626" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="E626" t="s">
         <v>1846</v>
@@ -22615,7 +22616,7 @@
         <v>2656</v>
       </c>
       <c r="D627" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="E627" t="s">
         <v>1849</v>
@@ -22632,7 +22633,7 @@
         <v>2656</v>
       </c>
       <c r="D628" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="E628" t="s">
         <v>1852</v>
@@ -22649,7 +22650,7 @@
         <v>2656</v>
       </c>
       <c r="D629" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="E629" t="s">
         <v>1855</v>
@@ -22666,7 +22667,7 @@
         <v>2656</v>
       </c>
       <c r="D630" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="E630" t="s">
         <v>1858</v>
@@ -22683,7 +22684,7 @@
         <v>2656</v>
       </c>
       <c r="D631" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="E631" t="s">
         <v>1861</v>
@@ -22700,7 +22701,7 @@
         <v>2656</v>
       </c>
       <c r="D632" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="E632" t="s">
         <v>1864</v>
@@ -22717,7 +22718,7 @@
         <v>2656</v>
       </c>
       <c r="D633" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="E633" t="s">
         <v>1867</v>
@@ -22734,7 +22735,7 @@
         <v>2656</v>
       </c>
       <c r="D634" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="E634" t="s">
         <v>1870</v>
@@ -22751,7 +22752,7 @@
         <v>2656</v>
       </c>
       <c r="D635" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="E635" t="s">
         <v>1873</v>
@@ -22768,7 +22769,7 @@
         <v>2656</v>
       </c>
       <c r="D636" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="E636" t="s">
         <v>1876</v>
@@ -22785,7 +22786,7 @@
         <v>2656</v>
       </c>
       <c r="D637" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="E637" t="s">
         <v>1879</v>
@@ -22802,7 +22803,7 @@
         <v>2656</v>
       </c>
       <c r="D638" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="E638" t="s">
         <v>1882</v>
@@ -22819,7 +22820,7 @@
         <v>2656</v>
       </c>
       <c r="D639" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="E639" t="s">
         <v>1885</v>
@@ -22836,7 +22837,7 @@
         <v>2656</v>
       </c>
       <c r="D640" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="E640" t="s">
         <v>1888</v>
@@ -22853,7 +22854,7 @@
         <v>2656</v>
       </c>
       <c r="D641" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="E641" t="s">
         <v>1891</v>
@@ -22870,7 +22871,7 @@
         <v>2683</v>
       </c>
       <c r="D642" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="E642" t="s">
         <v>1894</v>
@@ -22887,7 +22888,7 @@
         <v>2656</v>
       </c>
       <c r="D643" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="E643" t="s">
         <v>1897</v>
@@ -22904,7 +22905,7 @@
         <v>2652</v>
       </c>
       <c r="D644" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="E644" t="s">
         <v>1900</v>
@@ -22921,7 +22922,7 @@
         <v>2656</v>
       </c>
       <c r="D645" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="E645" t="s">
         <v>1903</v>
@@ -22938,7 +22939,7 @@
         <v>2656</v>
       </c>
       <c r="D646" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="E646" t="s">
         <v>1906</v>
@@ -22955,7 +22956,7 @@
         <v>2656</v>
       </c>
       <c r="D647" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="E647" t="s">
         <v>1909</v>
@@ -22972,7 +22973,7 @@
         <v>2656</v>
       </c>
       <c r="D648" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="E648" t="s">
         <v>1912</v>
@@ -22989,7 +22990,7 @@
         <v>2650</v>
       </c>
       <c r="D649" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="E649" t="s">
         <v>1915</v>
@@ -23006,7 +23007,7 @@
         <v>2684</v>
       </c>
       <c r="D650" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="E650" t="s">
         <v>1918</v>
@@ -23023,7 +23024,7 @@
         <v>2685</v>
       </c>
       <c r="D651" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="E651" t="s">
         <v>1921</v>
@@ -23040,7 +23041,7 @@
         <v>2675</v>
       </c>
       <c r="D652" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="E652" t="s">
         <v>1924</v>
@@ -23057,7 +23058,7 @@
         <v>2650</v>
       </c>
       <c r="D653" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="E653" t="s">
         <v>1927</v>
@@ -23074,7 +23075,7 @@
         <v>2657</v>
       </c>
       <c r="D654" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="E654" t="s">
         <v>1930</v>
@@ -23091,7 +23092,7 @@
         <v>2650</v>
       </c>
       <c r="D655" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="E655" t="s">
         <v>1933</v>
@@ -23108,7 +23109,7 @@
         <v>2642</v>
       </c>
       <c r="D656" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="E656" t="s">
         <v>1936</v>
@@ -23125,7 +23126,7 @@
         <v>2642</v>
       </c>
       <c r="D657" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="E657" t="s">
         <v>1939</v>
@@ -23142,7 +23143,7 @@
         <v>2642</v>
       </c>
       <c r="D658" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="E658" t="s">
         <v>1942</v>
@@ -23159,7 +23160,7 @@
         <v>2642</v>
       </c>
       <c r="D659" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="E659" t="s">
         <v>1945</v>
@@ -23176,7 +23177,7 @@
         <v>2642</v>
       </c>
       <c r="D660" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="E660" t="s">
         <v>1948</v>
@@ -23193,7 +23194,7 @@
         <v>2642</v>
       </c>
       <c r="D661" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="E661" t="s">
         <v>1951</v>
@@ -23210,7 +23211,7 @@
         <v>2642</v>
       </c>
       <c r="D662" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="E662" t="s">
         <v>1954</v>
@@ -23227,7 +23228,7 @@
         <v>2642</v>
       </c>
       <c r="D663" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="E663" t="s">
         <v>1957</v>
@@ -23244,7 +23245,7 @@
         <v>2653</v>
       </c>
       <c r="D664" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="E664" t="s">
         <v>1960</v>
@@ -23261,7 +23262,7 @@
         <v>2653</v>
       </c>
       <c r="D665" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="E665" t="s">
         <v>1963</v>
@@ -23278,7 +23279,7 @@
         <v>2653</v>
       </c>
       <c r="D666" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="E666" t="s">
         <v>1966</v>
@@ -23295,7 +23296,7 @@
         <v>2653</v>
       </c>
       <c r="D667" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="E667" t="s">
         <v>1969</v>
@@ -23312,7 +23313,7 @@
         <v>2653</v>
       </c>
       <c r="D668" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="E668" t="s">
         <v>1972</v>
@@ -23329,7 +23330,7 @@
         <v>2641</v>
       </c>
       <c r="D669" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="E669" t="s">
         <v>1975</v>
@@ -23346,7 +23347,7 @@
         <v>2641</v>
       </c>
       <c r="D670" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="E670" t="s">
         <v>1978</v>
@@ -23363,7 +23364,7 @@
         <v>2641</v>
       </c>
       <c r="D671" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="E671" t="s">
         <v>1981</v>
@@ -23380,7 +23381,7 @@
         <v>2641</v>
       </c>
       <c r="D672" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="E672" t="s">
         <v>1984</v>
@@ -23397,7 +23398,7 @@
         <v>2641</v>
       </c>
       <c r="D673" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="E673" t="s">
         <v>1987</v>
@@ -23414,7 +23415,7 @@
         <v>2641</v>
       </c>
       <c r="D674" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="E674" t="s">
         <v>1990</v>
@@ -23431,7 +23432,7 @@
         <v>2643</v>
       </c>
       <c r="D675" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="E675" t="s">
         <v>1984</v>
@@ -23448,7 +23449,7 @@
         <v>2641</v>
       </c>
       <c r="D676" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="E676" t="s">
         <v>1994</v>
@@ -23465,7 +23466,7 @@
         <v>2641</v>
       </c>
       <c r="D677" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="E677" t="s">
         <v>1997</v>
@@ -23482,7 +23483,7 @@
         <v>2641</v>
       </c>
       <c r="D678" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="E678" t="s">
         <v>2000</v>
@@ -23499,7 +23500,7 @@
         <v>2641</v>
       </c>
       <c r="D679" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="E679" t="s">
         <v>2003</v>
@@ -23516,7 +23517,7 @@
         <v>2641</v>
       </c>
       <c r="D680" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="E680" t="s">
         <v>2006</v>
@@ -23533,7 +23534,7 @@
         <v>2641</v>
       </c>
       <c r="D681" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="E681" t="s">
         <v>2009</v>
@@ -23550,7 +23551,7 @@
         <v>2641</v>
       </c>
       <c r="D682" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="E682" t="s">
         <v>2012</v>
@@ -23567,7 +23568,7 @@
         <v>2641</v>
       </c>
       <c r="D683" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="E683" t="s">
         <v>2015</v>
@@ -23584,7 +23585,7 @@
         <v>2641</v>
       </c>
       <c r="D684" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="E684" t="s">
         <v>2018</v>
@@ -23601,7 +23602,7 @@
         <v>2641</v>
       </c>
       <c r="D685" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="E685" t="s">
         <v>2021</v>
@@ -23618,7 +23619,7 @@
         <v>2641</v>
       </c>
       <c r="D686" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="E686" t="s">
         <v>2024</v>
@@ -23635,7 +23636,7 @@
         <v>2641</v>
       </c>
       <c r="D687" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="E687" t="s">
         <v>2027</v>
@@ -23652,7 +23653,7 @@
         <v>2641</v>
       </c>
       <c r="D688" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="E688" t="s">
         <v>2030</v>
@@ -23669,7 +23670,7 @@
         <v>2641</v>
       </c>
       <c r="D689" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="E689" t="s">
         <v>2033</v>
@@ -23686,7 +23687,7 @@
         <v>2641</v>
       </c>
       <c r="D690" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="E690" t="s">
         <v>2036</v>
@@ -23703,7 +23704,7 @@
         <v>2641</v>
       </c>
       <c r="D691" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="E691" t="s">
         <v>2039</v>
@@ -23720,7 +23721,7 @@
         <v>2641</v>
       </c>
       <c r="D692" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="E692" t="s">
         <v>2042</v>
@@ -23737,7 +23738,7 @@
         <v>2641</v>
       </c>
       <c r="D693" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="E693" t="s">
         <v>2045</v>
@@ -23754,7 +23755,7 @@
         <v>2641</v>
       </c>
       <c r="D694" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="E694" t="s">
         <v>2048</v>
@@ -23771,7 +23772,7 @@
         <v>2641</v>
       </c>
       <c r="D695" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="E695" t="s">
         <v>2051</v>
@@ -23788,7 +23789,7 @@
         <v>2641</v>
       </c>
       <c r="D696" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="E696" t="s">
         <v>2054</v>
@@ -23805,7 +23806,7 @@
         <v>2641</v>
       </c>
       <c r="D697" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="E697" t="s">
         <v>2057</v>
@@ -23822,7 +23823,7 @@
         <v>2641</v>
       </c>
       <c r="D698" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="E698" t="s">
         <v>2060</v>
@@ -23839,7 +23840,7 @@
         <v>2642</v>
       </c>
       <c r="D699" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="E699" t="s">
         <v>2063</v>
@@ -23856,7 +23857,7 @@
         <v>2641</v>
       </c>
       <c r="D700" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="E700" t="s">
         <v>2066</v>
@@ -23873,7 +23874,7 @@
         <v>2641</v>
       </c>
       <c r="D701" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="E701" t="s">
         <v>2069</v>
@@ -23890,7 +23891,7 @@
         <v>2642</v>
       </c>
       <c r="D702" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="E702" t="s">
         <v>2072</v>
@@ -23907,7 +23908,7 @@
         <v>2641</v>
       </c>
       <c r="D703" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="E703" t="s">
         <v>2075</v>
@@ -23924,7 +23925,7 @@
         <v>2641</v>
       </c>
       <c r="D704" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="E704" t="s">
         <v>2078</v>
@@ -23941,7 +23942,7 @@
         <v>2641</v>
       </c>
       <c r="D705" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="E705" t="s">
         <v>2080</v>
@@ -23958,7 +23959,7 @@
         <v>2638</v>
       </c>
       <c r="D706" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="E706" t="s">
         <v>2083</v>
@@ -23975,7 +23976,7 @@
         <v>2638</v>
       </c>
       <c r="D707" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="E707" t="s">
         <v>2086</v>
@@ -23992,7 +23993,7 @@
         <v>2641</v>
       </c>
       <c r="D708" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="E708" t="s">
         <v>2089</v>
@@ -24009,7 +24010,7 @@
         <v>2641</v>
       </c>
       <c r="D709" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="E709" t="s">
         <v>2092</v>
@@ -24026,7 +24027,7 @@
         <v>2641</v>
       </c>
       <c r="D710" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="E710" t="s">
         <v>2095</v>
@@ -24043,7 +24044,7 @@
         <v>2641</v>
       </c>
       <c r="D711" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="E711" t="s">
         <v>2098</v>
@@ -24060,7 +24061,7 @@
         <v>2641</v>
       </c>
       <c r="D712" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="E712" t="s">
         <v>2101</v>
@@ -24077,7 +24078,7 @@
         <v>2634</v>
       </c>
       <c r="D713" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="E713" t="s">
         <v>2104</v>
@@ -24094,7 +24095,7 @@
         <v>2634</v>
       </c>
       <c r="D714" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="E714" t="s">
         <v>2107</v>
@@ -24111,7 +24112,7 @@
         <v>2634</v>
       </c>
       <c r="D715" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="E715" t="s">
         <v>2110</v>
@@ -24128,7 +24129,7 @@
         <v>2634</v>
       </c>
       <c r="D716" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="E716" t="s">
         <v>2113</v>
@@ -24145,7 +24146,7 @@
         <v>2634</v>
       </c>
       <c r="D717" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="E717" t="s">
         <v>2116</v>
@@ -24162,7 +24163,7 @@
         <v>2634</v>
       </c>
       <c r="D718" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="E718" t="s">
         <v>2119</v>
@@ -24179,7 +24180,7 @@
         <v>2655</v>
       </c>
       <c r="D719" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="E719" t="s">
         <v>2122</v>
@@ -24196,7 +24197,7 @@
         <v>2634</v>
       </c>
       <c r="D720" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="E720" t="s">
         <v>2125</v>
@@ -24213,7 +24214,7 @@
         <v>2634</v>
       </c>
       <c r="D721" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="E721" t="s">
         <v>2128</v>
@@ -24230,7 +24231,7 @@
         <v>2634</v>
       </c>
       <c r="D722" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="E722" t="s">
         <v>2131</v>
@@ -24247,7 +24248,7 @@
         <v>2634</v>
       </c>
       <c r="D723" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="E723" t="s">
         <v>2134</v>
@@ -24264,7 +24265,7 @@
         <v>2634</v>
       </c>
       <c r="D724" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="E724" t="s">
         <v>2137</v>
@@ -24281,7 +24282,7 @@
         <v>2686</v>
       </c>
       <c r="D725" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="E725" t="s">
         <v>2140</v>
@@ -24298,7 +24299,7 @@
         <v>2634</v>
       </c>
       <c r="D726" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="E726" t="s">
         <v>2143</v>
@@ -24315,7 +24316,7 @@
         <v>2634</v>
       </c>
       <c r="D727" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="E727" t="s">
         <v>2146</v>
@@ -24332,7 +24333,7 @@
         <v>2634</v>
       </c>
       <c r="D728" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="E728" t="s">
         <v>2149</v>
@@ -24349,7 +24350,7 @@
         <v>2634</v>
       </c>
       <c r="D729" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="E729" t="s">
         <v>2152</v>
@@ -24366,7 +24367,7 @@
         <v>2634</v>
       </c>
       <c r="D730" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="E730" t="s">
         <v>2155</v>
@@ -24383,7 +24384,7 @@
         <v>2634</v>
       </c>
       <c r="D731" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="E731" t="s">
         <v>2158</v>
@@ -24400,7 +24401,7 @@
         <v>2634</v>
       </c>
       <c r="D732" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="E732" t="s">
         <v>2161</v>
@@ -24417,7 +24418,7 @@
         <v>2634</v>
       </c>
       <c r="D733" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="E733" t="s">
         <v>2164</v>
@@ -24434,7 +24435,7 @@
         <v>2634</v>
       </c>
       <c r="D734" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="E734" t="s">
         <v>2167</v>
@@ -24451,7 +24452,7 @@
         <v>2634</v>
       </c>
       <c r="D735" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="E735" t="s">
         <v>2170</v>
@@ -24468,7 +24469,7 @@
         <v>2642</v>
       </c>
       <c r="D736" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="E736" t="s">
         <v>2173</v>
@@ -24485,7 +24486,7 @@
         <v>2642</v>
       </c>
       <c r="D737" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="E737" t="s">
         <v>2176</v>
@@ -24502,7 +24503,7 @@
         <v>2642</v>
       </c>
       <c r="D738" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="E738" t="s">
         <v>2179</v>
@@ -24519,7 +24520,7 @@
         <v>2643</v>
       </c>
       <c r="D739" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="E739" t="s">
         <v>2182</v>
@@ -24536,7 +24537,7 @@
         <v>2642</v>
       </c>
       <c r="D740" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="E740" t="s">
         <v>2185</v>
@@ -24553,7 +24554,7 @@
         <v>2643</v>
       </c>
       <c r="D741" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="E741" t="s">
         <v>2188</v>
@@ -24570,7 +24571,7 @@
         <v>2642</v>
       </c>
       <c r="D742" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="E742" t="s">
         <v>2191</v>
@@ -24587,7 +24588,7 @@
         <v>2642</v>
       </c>
       <c r="D743" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="E743" t="s">
         <v>2194</v>
@@ -24604,7 +24605,7 @@
         <v>2642</v>
       </c>
       <c r="D744" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="E744" t="s">
         <v>2197</v>
@@ -24621,7 +24622,7 @@
         <v>2642</v>
       </c>
       <c r="D745" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="E745" t="s">
         <v>2200</v>
@@ -24638,10 +24639,10 @@
         <v>2642</v>
       </c>
       <c r="D746" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="E746" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
       <c r="F746" t="s">
         <v>2203</v>
@@ -24655,7 +24656,7 @@
         <v>2642</v>
       </c>
       <c r="D747" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="E747" t="s">
         <v>2205</v>
@@ -24672,7 +24673,7 @@
         <v>2642</v>
       </c>
       <c r="D748" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="E748" t="s">
         <v>2208</v>
@@ -24689,7 +24690,7 @@
         <v>2642</v>
       </c>
       <c r="D749" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="E749" t="s">
         <v>2211</v>
@@ -24706,7 +24707,7 @@
         <v>2642</v>
       </c>
       <c r="D750" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="E750" t="s">
         <v>2214</v>
@@ -24723,7 +24724,7 @@
         <v>2642</v>
       </c>
       <c r="D751" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="E751" t="s">
         <v>2217</v>
@@ -24740,7 +24741,7 @@
         <v>2642</v>
       </c>
       <c r="D752" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="E752" t="s">
         <v>2220</v>
@@ -24757,7 +24758,7 @@
         <v>2642</v>
       </c>
       <c r="D753" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="E753" t="s">
         <v>2223</v>
@@ -24774,7 +24775,7 @@
         <v>2642</v>
       </c>
       <c r="D754" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="E754" t="s">
         <v>2226</v>
@@ -24791,7 +24792,7 @@
         <v>2642</v>
       </c>
       <c r="D755" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="E755" t="s">
         <v>2229</v>
@@ -24808,7 +24809,7 @@
         <v>2642</v>
       </c>
       <c r="D756" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="E756" t="s">
         <v>2232</v>
@@ -24825,7 +24826,7 @@
         <v>2682</v>
       </c>
       <c r="D757" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="E757" t="s">
         <v>2235</v>
@@ -24842,7 +24843,7 @@
         <v>2682</v>
       </c>
       <c r="D758" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="E758" t="s">
         <v>2238</v>
@@ -24859,7 +24860,7 @@
         <v>2652</v>
       </c>
       <c r="D759" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="E759" t="s">
         <v>2241</v>
@@ -24876,7 +24877,7 @@
         <v>2642</v>
       </c>
       <c r="D760" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="E760" t="s">
         <v>2244</v>
@@ -24893,7 +24894,7 @@
         <v>2642</v>
       </c>
       <c r="D761" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="E761" t="s">
         <v>2191</v>
@@ -24910,7 +24911,7 @@
         <v>2687</v>
       </c>
       <c r="D762" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="E762" t="s">
         <v>2248</v>
@@ -24927,7 +24928,7 @@
         <v>2652</v>
       </c>
       <c r="D763" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="E763" t="s">
         <v>2251</v>
@@ -24944,7 +24945,7 @@
         <v>2676</v>
       </c>
       <c r="D764" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="E764" t="s">
         <v>2254</v>
@@ -24961,7 +24962,7 @@
         <v>2638</v>
       </c>
       <c r="D765" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="E765" t="s">
         <v>2257</v>
@@ -24978,7 +24979,7 @@
         <v>2638</v>
       </c>
       <c r="D766" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="E766" t="s">
         <v>2260</v>
@@ -24995,7 +24996,7 @@
         <v>2638</v>
       </c>
       <c r="D767" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="E767" t="s">
         <v>2263</v>
@@ -25012,7 +25013,7 @@
         <v>2638</v>
       </c>
       <c r="D768" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="E768" t="s">
         <v>2266</v>
@@ -25029,7 +25030,7 @@
         <v>2638</v>
       </c>
       <c r="D769" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E769" t="s">
         <v>2269</v>
@@ -25046,7 +25047,7 @@
         <v>2688</v>
       </c>
       <c r="D770" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="E770" t="s">
         <v>2272</v>
@@ -25063,7 +25064,7 @@
         <v>2639</v>
       </c>
       <c r="D771" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="E771" t="s">
         <v>2275</v>
@@ -25080,7 +25081,7 @@
         <v>2639</v>
       </c>
       <c r="D772" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="E772" t="s">
         <v>2278</v>
@@ -25097,7 +25098,7 @@
         <v>2689</v>
       </c>
       <c r="D773" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="E773" t="s">
         <v>2281</v>
@@ -25117,7 +25118,7 @@
         <v>366</v>
       </c>
       <c r="D774" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="E774" t="s">
         <v>2284</v>
@@ -25137,7 +25138,7 @@
         <v>366</v>
       </c>
       <c r="D775" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="E775" t="s">
         <v>2287</v>
@@ -25154,7 +25155,7 @@
         <v>2686</v>
       </c>
       <c r="D776" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="E776" t="s">
         <v>2290</v>
@@ -25171,7 +25172,7 @@
         <v>2686</v>
       </c>
       <c r="D777" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="E777" t="s">
         <v>2293</v>
@@ -25188,7 +25189,7 @@
         <v>2643</v>
       </c>
       <c r="D778" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="E778" t="s">
         <v>1637</v>
@@ -25205,7 +25206,7 @@
         <v>2643</v>
       </c>
       <c r="D779" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="E779" t="s">
         <v>2298</v>
@@ -25222,7 +25223,7 @@
         <v>2691</v>
       </c>
       <c r="D780" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="E780" t="s">
         <v>2301</v>
@@ -25239,7 +25240,7 @@
         <v>2659</v>
       </c>
       <c r="D781" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="E781" t="s">
         <v>2304</v>
@@ -25256,7 +25257,7 @@
         <v>2659</v>
       </c>
       <c r="D782" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="E782" t="s">
         <v>2307</v>
@@ -25273,7 +25274,7 @@
         <v>2663</v>
       </c>
       <c r="D783" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="E783" t="s">
         <v>2310</v>
@@ -25290,7 +25291,7 @@
         <v>2651</v>
       </c>
       <c r="D784" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="E784" t="s">
         <v>2313</v>
@@ -25307,7 +25308,7 @@
         <v>2651</v>
       </c>
       <c r="D785" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="E785" t="s">
         <v>2316</v>
@@ -25324,7 +25325,7 @@
         <v>2692</v>
       </c>
       <c r="D786" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="E786" t="s">
         <v>2319</v>
@@ -25341,7 +25342,7 @@
         <v>2684</v>
       </c>
       <c r="D787" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="E787" t="s">
         <v>2322</v>
@@ -25358,7 +25359,7 @@
         <v>2684</v>
       </c>
       <c r="D788" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="E788" t="s">
         <v>2325</v>
@@ -25375,7 +25376,7 @@
         <v>2684</v>
       </c>
       <c r="D789" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="E789" t="s">
         <v>2328</v>
@@ -25392,7 +25393,7 @@
         <v>2652</v>
       </c>
       <c r="D790" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="E790" t="s">
         <v>2331</v>
@@ -25409,7 +25410,7 @@
         <v>2652</v>
       </c>
       <c r="D791" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="E791" t="s">
         <v>2334</v>
@@ -25426,7 +25427,7 @@
         <v>2652</v>
       </c>
       <c r="D792" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="E792" t="s">
         <v>2337</v>
@@ -25443,7 +25444,7 @@
         <v>2652</v>
       </c>
       <c r="D793" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="E793" t="s">
         <v>2340</v>
@@ -25460,7 +25461,7 @@
         <v>2652</v>
       </c>
       <c r="D794" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="E794" t="s">
         <v>2343</v>
@@ -25477,7 +25478,7 @@
         <v>2652</v>
       </c>
       <c r="D795" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="E795" t="s">
         <v>2346</v>
@@ -25494,7 +25495,7 @@
         <v>2652</v>
       </c>
       <c r="D796" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="E796" t="s">
         <v>2349</v>
@@ -25511,7 +25512,7 @@
         <v>2652</v>
       </c>
       <c r="D797" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="E797" t="s">
         <v>2352</v>
@@ -25528,7 +25529,7 @@
         <v>2652</v>
       </c>
       <c r="D798" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="E798" t="s">
         <v>2355</v>
@@ -25545,7 +25546,7 @@
         <v>2652</v>
       </c>
       <c r="D799" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="E799" t="s">
         <v>2358</v>
@@ -25562,7 +25563,7 @@
         <v>2652</v>
       </c>
       <c r="D800" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="E800" t="s">
         <v>2361</v>
@@ -25579,7 +25580,7 @@
         <v>2652</v>
       </c>
       <c r="D801" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="E801" t="s">
         <v>2364</v>
@@ -25596,7 +25597,7 @@
         <v>2693</v>
       </c>
       <c r="D802" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="E802" t="s">
         <v>2367</v>
@@ -25613,7 +25614,7 @@
         <v>2652</v>
       </c>
       <c r="D803" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="E803" t="s">
         <v>2370</v>
@@ -25630,7 +25631,7 @@
         <v>2652</v>
       </c>
       <c r="D804" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="E804" t="s">
         <v>2373</v>
@@ -25647,7 +25648,7 @@
         <v>2652</v>
       </c>
       <c r="D805" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="E805" t="s">
         <v>2376</v>
@@ -25664,7 +25665,7 @@
         <v>2652</v>
       </c>
       <c r="D806" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="E806" t="s">
         <v>2379</v>
@@ -25681,7 +25682,7 @@
         <v>2652</v>
       </c>
       <c r="D807" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="E807" t="s">
         <v>2382</v>
@@ -25698,7 +25699,7 @@
         <v>2652</v>
       </c>
       <c r="D808" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="E808" t="s">
         <v>2385</v>
@@ -25715,7 +25716,7 @@
         <v>2694</v>
       </c>
       <c r="D809" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="E809" t="s">
         <v>2388</v>
@@ -25732,7 +25733,7 @@
         <v>2694</v>
       </c>
       <c r="D810" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="E810" t="s">
         <v>2391</v>
@@ -25749,7 +25750,7 @@
         <v>2694</v>
       </c>
       <c r="D811" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="E811" t="s">
         <v>2394</v>
@@ -25766,7 +25767,7 @@
         <v>2655</v>
       </c>
       <c r="D812" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="E812" t="s">
         <v>2397</v>
@@ -25783,7 +25784,7 @@
         <v>2676</v>
       </c>
       <c r="D813" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="E813" t="s">
         <v>2400</v>
@@ -25800,7 +25801,7 @@
         <v>2676</v>
       </c>
       <c r="D814" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="E814" t="s">
         <v>2403</v>
@@ -25817,7 +25818,7 @@
         <v>2676</v>
       </c>
       <c r="D815" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="E815" t="s">
         <v>2406</v>
@@ -25834,7 +25835,7 @@
         <v>2675</v>
       </c>
       <c r="D816" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="E816" t="s">
         <v>2409</v>
@@ -25851,7 +25852,7 @@
         <v>2675</v>
       </c>
       <c r="D817" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="E817" t="s">
         <v>2412</v>
@@ -25868,7 +25869,7 @@
         <v>2695</v>
       </c>
       <c r="D818" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="E818" t="s">
         <v>2415</v>
@@ -25885,7 +25886,7 @@
         <v>2695</v>
       </c>
       <c r="D819" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="E819" t="s">
         <v>2418</v>
@@ -25902,7 +25903,7 @@
         <v>2695</v>
       </c>
       <c r="D820" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="E820" t="s">
         <v>2421</v>
@@ -25919,7 +25920,7 @@
         <v>2678</v>
       </c>
       <c r="D821" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="E821" t="s">
         <v>2424</v>
@@ -25936,7 +25937,7 @@
         <v>2678</v>
       </c>
       <c r="D822" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="E822" t="s">
         <v>2427</v>
@@ -25953,7 +25954,7 @@
         <v>2678</v>
       </c>
       <c r="D823" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="E823" t="s">
         <v>2430</v>
@@ -25970,7 +25971,7 @@
         <v>2678</v>
       </c>
       <c r="D824" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="E824" t="s">
         <v>2433</v>
@@ -25987,7 +25988,7 @@
         <v>2678</v>
       </c>
       <c r="D825" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="E825" t="s">
         <v>2436</v>
@@ -26004,7 +26005,7 @@
         <v>2696</v>
       </c>
       <c r="D826" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="E826" t="s">
         <v>2439</v>
@@ -26021,7 +26022,7 @@
         <v>2697</v>
       </c>
       <c r="D827" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="E827" t="s">
         <v>2442</v>
@@ -26038,7 +26039,7 @@
         <v>2678</v>
       </c>
       <c r="D828" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="E828" t="s">
         <v>2445</v>
@@ -26055,7 +26056,7 @@
         <v>2678</v>
       </c>
       <c r="D829" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="E829" t="s">
         <v>2448</v>
@@ -26072,7 +26073,7 @@
         <v>2678</v>
       </c>
       <c r="D830" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="E830" t="s">
         <v>2451</v>
@@ -26089,7 +26090,7 @@
         <v>2678</v>
       </c>
       <c r="D831" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="E831" t="s">
         <v>2454</v>
@@ -26106,7 +26107,7 @@
         <v>2678</v>
       </c>
       <c r="D832" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="E832" t="s">
         <v>2457</v>
@@ -26123,7 +26124,7 @@
         <v>2673</v>
       </c>
       <c r="D833" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="E833" t="s">
         <v>2460</v>
@@ -26140,7 +26141,7 @@
         <v>2673</v>
       </c>
       <c r="D834" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="E834" t="s">
         <v>2463</v>
@@ -26157,7 +26158,7 @@
         <v>2673</v>
       </c>
       <c r="D835" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="E835" t="s">
         <v>2466</v>
@@ -26174,7 +26175,7 @@
         <v>2698</v>
       </c>
       <c r="D836" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="E836" t="s">
         <v>2469</v>
@@ -26191,7 +26192,7 @@
         <v>2699</v>
       </c>
       <c r="D837" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="E837" t="s">
         <v>2472</v>
@@ -26208,7 +26209,7 @@
         <v>2635</v>
       </c>
       <c r="D838" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="E838" t="s">
         <v>2475</v>
@@ -26225,7 +26226,7 @@
         <v>2700</v>
       </c>
       <c r="D839" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="E839" t="s">
         <v>2478</v>
@@ -26242,7 +26243,7 @@
         <v>2701</v>
       </c>
       <c r="D840" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="E840" t="s">
         <v>2481</v>
@@ -26259,7 +26260,7 @@
         <v>2700</v>
       </c>
       <c r="D841" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="E841" t="s">
         <v>2484</v>
@@ -26276,7 +26277,7 @@
         <v>2702</v>
       </c>
       <c r="D842" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="E842" t="s">
         <v>2487</v>
@@ -26293,7 +26294,7 @@
         <v>2703</v>
       </c>
       <c r="D843" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="E843" t="s">
         <v>2490</v>
@@ -26310,7 +26311,7 @@
         <v>2704</v>
       </c>
       <c r="D844" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="E844" t="s">
         <v>2493</v>
@@ -26327,7 +26328,7 @@
         <v>2672</v>
       </c>
       <c r="D845" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="E845" t="s">
         <v>2496</v>
@@ -26344,7 +26345,7 @@
         <v>2672</v>
       </c>
       <c r="D846" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="E846" t="s">
         <v>2499</v>
@@ -26361,7 +26362,7 @@
         <v>2705</v>
       </c>
       <c r="D847" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="E847" t="s">
         <v>2502</v>
@@ -26378,7 +26379,7 @@
         <v>2705</v>
       </c>
       <c r="D848" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="E848" t="s">
         <v>2505</v>
@@ -26395,7 +26396,7 @@
         <v>2706</v>
       </c>
       <c r="D849" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="E849" t="s">
         <v>2508</v>
@@ -26412,7 +26413,7 @@
         <v>2649</v>
       </c>
       <c r="D850" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="E850" t="s">
         <v>2511</v>
@@ -26429,7 +26430,7 @@
         <v>2707</v>
       </c>
       <c r="D851" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="E851" t="s">
         <v>2514</v>
@@ -26446,7 +26447,7 @@
         <v>2707</v>
       </c>
       <c r="D852" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="E852" t="s">
         <v>2517</v>
@@ -26463,7 +26464,7 @@
         <v>2707</v>
       </c>
       <c r="D853" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="E853" t="s">
         <v>2520</v>
@@ -26480,7 +26481,7 @@
         <v>2707</v>
       </c>
       <c r="D854" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="E854" t="s">
         <v>2523</v>
@@ -26497,7 +26498,7 @@
         <v>2707</v>
       </c>
       <c r="D855" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="E855" t="s">
         <v>2526</v>
@@ -26514,7 +26515,7 @@
         <v>2708</v>
       </c>
       <c r="D856" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="E856" t="s">
         <v>2529</v>
@@ -26531,7 +26532,7 @@
         <v>2687</v>
       </c>
       <c r="D857" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="E857" t="s">
         <v>2532</v>
@@ -26548,7 +26549,7 @@
         <v>2687</v>
       </c>
       <c r="D858" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="E858" t="s">
         <v>2532</v>
@@ -26565,7 +26566,7 @@
         <v>2709</v>
       </c>
       <c r="D859" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="E859" t="s">
         <v>2537</v>
@@ -26582,7 +26583,7 @@
         <v>2683</v>
       </c>
       <c r="D860" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="E860" t="s">
         <v>2540</v>
@@ -26599,7 +26600,7 @@
         <v>2655</v>
       </c>
       <c r="D861" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="E861" t="s">
         <v>2543</v>
@@ -26616,7 +26617,7 @@
         <v>2655</v>
       </c>
       <c r="D862" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="E862" t="s">
         <v>2546</v>
@@ -26633,7 +26634,7 @@
         <v>2632</v>
       </c>
       <c r="D863" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="E863" t="s">
         <v>2549</v>
@@ -26650,7 +26651,7 @@
         <v>2632</v>
       </c>
       <c r="D864" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="E864" t="s">
         <v>2552</v>
@@ -26667,7 +26668,7 @@
         <v>2632</v>
       </c>
       <c r="D865" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="E865" t="s">
         <v>2555</v>
@@ -26684,7 +26685,7 @@
         <v>2710</v>
       </c>
       <c r="D866" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="E866" t="s">
         <v>2558</v>
@@ -26701,7 +26702,7 @@
         <v>2647</v>
       </c>
       <c r="D867" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="E867" t="s">
         <v>2561</v>
@@ -26718,7 +26719,7 @@
         <v>2711</v>
       </c>
       <c r="D868" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="E868" t="s">
         <v>2564</v>
@@ -26735,7 +26736,7 @@
         <v>2711</v>
       </c>
       <c r="D869" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="E869" t="s">
         <v>2567</v>
@@ -26752,7 +26753,7 @@
         <v>2711</v>
       </c>
       <c r="D870" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="E870" t="s">
         <v>2570</v>
@@ -26769,7 +26770,7 @@
         <v>2637</v>
       </c>
       <c r="D871" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="E871" t="s">
         <v>2572</v>
@@ -26786,7 +26787,7 @@
         <v>2637</v>
       </c>
       <c r="D872" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="E872" t="s">
         <v>2575</v>
@@ -26803,7 +26804,7 @@
         <v>2665</v>
       </c>
       <c r="D873" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="E873" t="s">
         <v>2578</v>
@@ -26820,7 +26821,7 @@
         <v>2665</v>
       </c>
       <c r="D874" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="E874" t="s">
         <v>2581</v>
@@ -26837,7 +26838,7 @@
         <v>2712</v>
       </c>
       <c r="D875" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="E875" t="s">
         <v>2584</v>
@@ -26854,7 +26855,7 @@
         <v>2712</v>
       </c>
       <c r="D876" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="E876" t="s">
         <v>2587</v>
@@ -26871,7 +26872,7 @@
         <v>2713</v>
       </c>
       <c r="D877" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="E877" t="s">
         <v>2590</v>
@@ -26888,7 +26889,7 @@
         <v>2713</v>
       </c>
       <c r="D878" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="E878" t="s">
         <v>2593</v>
@@ -26905,7 +26906,7 @@
         <v>2713</v>
       </c>
       <c r="D879" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="E879" t="s">
         <v>2596</v>
@@ -26922,7 +26923,7 @@
         <v>2713</v>
       </c>
       <c r="D880" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="E880" t="s">
         <v>2599</v>
@@ -26939,7 +26940,7 @@
         <v>2713</v>
       </c>
       <c r="D881" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="E881" t="s">
         <v>2602</v>
@@ -26956,7 +26957,7 @@
         <v>2713</v>
       </c>
       <c r="D882" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="E882" t="s">
         <v>2605</v>
@@ -26973,7 +26974,7 @@
         <v>2713</v>
       </c>
       <c r="D883" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="E883" t="s">
         <v>2608</v>
@@ -26990,7 +26991,7 @@
         <v>2654</v>
       </c>
       <c r="D884" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="E884" t="s">
         <v>2611</v>
@@ -27007,7 +27008,7 @@
         <v>2653</v>
       </c>
       <c r="D885" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="E885" t="s">
         <v>2614</v>
@@ -27024,7 +27025,7 @@
         <v>2653</v>
       </c>
       <c r="D886" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="E886" t="s">
         <v>2617</v>
@@ -27041,7 +27042,7 @@
         <v>2660</v>
       </c>
       <c r="D887" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="E887" t="s">
         <v>2620</v>
@@ -27058,7 +27059,7 @@
         <v>2660</v>
       </c>
       <c r="D888" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="E888" t="s">
         <v>2623</v>
@@ -27075,7 +27076,7 @@
         <v>2660</v>
       </c>
       <c r="D889" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="E889" t="s">
         <v>2626</v>
@@ -27092,7 +27093,7 @@
         <v>2660</v>
       </c>
       <c r="D890" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="E890" t="s">
         <v>2629</v>

--- a/_Lang_Korean/Lang/KR/Game/Game.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Game.xlsx
@@ -10976,7 +10976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -11000,6 +11000,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -11051,7 +11058,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11062,6 +11069,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -11090,10 +11101,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D406" activeCellId="0" sqref="D406"/>
+      <selection pane="bottomLeft" activeCell="D407" activeCellId="0" sqref="D407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.234375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.20703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.13"/>
@@ -18505,14 +18516,14 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>1628</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="D406" s="0" t="s">
+      <c r="D406" s="3" t="s">
         <v>1629</v>
       </c>
       <c r="E406" s="0" t="s">

--- a/_Lang_Korean/Lang/KR/Game/Game.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Game.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="3586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="3585">
   <si>
     <t>id</t>
   </si>
@@ -243,7 +243,7 @@
     <t>earthquake</t>
   </si>
   <si>
-    <t>쿠구구구구...</t>
+    <t>쿠구구구구…</t>
   </si>
   <si>
     <t>WHRRRR….</t>
@@ -543,7 +543,7 @@
     <t>Alpha 20.7</t>
   </si>
   <si>
-    <t>아무것도 잡히지 않았다...
+    <t>아무것도 잡히지 않았다…
 생선이 도망쳤다.
 생선들에게 무시당했다.
 생선들은 오늘 휴무일인가 보다.
@@ -750,7 +750,7 @@
     <t>eat_end</t>
   </si>
   <si>
-    <t>#1은(는) #2 먹는 것을 끝냈다</t>
+    <t>#1은(는) #2을(를) 다 먹었다.</t>
   </si>
   <si>
     <t>#1 finish(es) eating #2.</t>
@@ -765,7 +765,7 @@
     <t>Alpha 17.1</t>
   </si>
   <si>
-    <t>배가 빵빵해서 이 이상 못먹어!</t>
+    <t>배가 빵빵해서 이 이상 못 먹어!</t>
   </si>
   <si>
     <t>You are too full to eat any more!</t>
@@ -780,7 +780,7 @@
     <t>Alpha 19.1</t>
   </si>
   <si>
-    <t>독이 들어있다! #1은(는) 몸부림치며 고통스러워했다!</t>
+    <t>독이 들어 있다! #1은(는) 몸부림치며 고통스러워했다!</t>
   </si>
   <si>
     <t>It's poisoned! #1 writhe(s) in agony!</t>
@@ -1476,7 +1476,7 @@
     <t>identified</t>
   </si>
   <si>
-    <t>#1은(는) #2라고 감정했다.</t>
+    <t>#1은(는) #2이(라)고 감정했다.</t>
   </si>
   <si>
     <t>#1 is identified as #2.</t>
@@ -1926,7 +1926,7 @@
     <t>summon_ally_fail</t>
   </si>
   <si>
-    <t>하지만 아무도 도와주러 오지 않았다...</t>
+    <t>하지만 아무도 도와주러 오지 않았다…</t>
   </si>
   <si>
     <t>But no help comes...</t>
@@ -1965,7 +1965,7 @@
     <t>nothingHappens</t>
   </si>
   <si>
-    <t>아무 일도 없었다...</t>
+    <t>아무 일도 없었다…</t>
   </si>
   <si>
     <t>Nothing seems to happen...</t>
@@ -3486,7 +3486,7 @@
     <t>Alpha 20.12</t>
   </si>
   <si>
-    <t>#1을(를) 만지니 부서져버렸다.</t>
+    <t>#1을(를) 만지니 부서져 버렸다.</t>
   </si>
   <si>
     <t>#1 crumble(s) as you touch.</t>
@@ -3498,7 +3498,7 @@
     <t>spellbookCrumble</t>
   </si>
   <si>
-    <t>#1은(는) 가루가 되어서 무너져버렸다.</t>
+    <t>#1은(는) 가루가 되어서 무너져 버렸다.</t>
   </si>
   <si>
     <t>#1 fall(s) apart.</t>
@@ -3876,7 +3876,7 @@
     <t>book_secret2</t>
   </si>
   <si>
-    <t>&lt;i&gt;이젠...안 되겠어…&lt;/i&gt;</t>
+    <t>&lt;i&gt;이젠…안 되겠어…&lt;/i&gt;</t>
   </si>
   <si>
     <t>&lt;i&gt;You are...at your limit...&lt;/i&gt;</t>
@@ -3948,7 +3948,7 @@
     <t>wishHappen</t>
   </si>
   <si>
-    <t>무엇을 원해 ?</t>
+    <t>무엇을 원해?</t>
   </si>
   <si>
     <t>What do you wish?</t>
@@ -3960,7 +3960,7 @@
     <t>affinityPlus</t>
   </si>
   <si>
-    <t>#1은(는) #2에 호감을 느꼈다.</t>
+    <t>#1은(는) #2에게 호감을 느꼈다.</t>
   </si>
   <si>
     <t>#1 like(s) #2.</t>
@@ -3972,7 +3972,7 @@
     <t>affinityMinus</t>
   </si>
   <si>
-    <t>#1은(는) #2에 혐오감을 느꼈다.</t>
+    <t>#1은(는) #2에게 혐오감을 느꼈다.</t>
   </si>
   <si>
     <t>#1 dislike(s) #2.</t>
@@ -4839,7 +4839,7 @@
     <t>newMeeting</t>
   </si>
   <si>
-    <t>방문객이 있는듯 하다.</t>
+    <t>방문객이 있는 듯 하다.</t>
   </si>
   <si>
     <t>Someone wants to see you.</t>
@@ -5271,7 +5271,7 @@
     <t>die_card</t>
   </si>
   <si>
-    <t>#1은(는) 부셔졌다.</t>
+    <t>#1은(는) 부서졌다.</t>
   </si>
   <si>
     <t>#1 are/is destroyed.</t>
@@ -5436,7 +5436,7 @@
     <t>replace_pc</t>
   </si>
   <si>
-    <t>#2으(로) 자리를 바꿨다.</t>
+    <t>#2와(과) 자리를 바꿨다.</t>
   </si>
   <si>
     <t>You displace #2.</t>
@@ -5535,7 +5535,7 @@
     <t>drunk_counter</t>
   </si>
   <si>
-    <t>#1은 술주정이 짜증나는듯 하다.</t>
+    <t>#1은(는) 술주정이 짜증나는 듯 하다.</t>
   </si>
   <si>
     <t>#1 are/is pretty annoyed with the drunkard.</t>
@@ -5859,7 +5859,7 @@
     <t>Beta 23.0</t>
   </si>
   <si>
-    <t>감정할 수 있는 물건이 없어...</t>
+    <t>감정할 수 있는 물건이 없어…</t>
   </si>
   <si>
     <t>There is nothing to identify.</t>
@@ -6513,7 +6513,7 @@
     <t>food_average</t>
   </si>
   <si>
-    <t>나쁘지않은 맛이다.
+    <t>나쁘지 않은 맛이다.
 나름 괜찮구네.</t>
   </si>
   <si>
@@ -6668,7 +6668,7 @@
     <t>food_rot</t>
   </si>
   <si>
-    <t>으엑! 썩은 음식을 먹어버렸다...으악...</t>
+    <t>으엑! 썩은 음식을 먹어버렸다… 으악…</t>
   </si>
   <si>
     <t>Ugh! Rotten food!</t>
@@ -6692,9 +6692,9 @@
     <t>food_mind</t>
   </si>
   <si>
-    <t>뭔가 이상하다...
-빙글빙글... 세상이 돌고있어...
-으앗! 땅바닥이 녹고있다!</t>
+    <t>뭔가 이상하다…
+빙글빙글… 세상이 돌고 있어…
+으앗! 땅바닥이 녹고 있다!</t>
   </si>
   <si>
     <t>Something is wrong...
@@ -6710,7 +6710,7 @@
     <t>food_raw_meat</t>
   </si>
   <si>
-    <t>생고기다...</t>
+    <t>생고기다…</t>
   </si>
   <si>
     <t>Ugh...Raw meat...</t>
@@ -6722,7 +6722,7 @@
     <t>food_raw_powder</t>
   </si>
   <si>
-    <t>가루맛이 난다...</t>
+    <t>가루맛이 난다…</t>
   </si>
   <si>
     <t>It has a powdery taste...</t>
@@ -6737,7 +6737,7 @@
     <t>foot</t>
   </si>
   <si>
-    <t>못먹는 것은 아니지만...</t>
+    <t>못 먹을 건 아니지만…</t>
   </si>
   <si>
     <t>It's not inedible, but...</t>
@@ -6761,7 +6761,7 @@
     <t>food_human_neg</t>
   </si>
   <si>
-    <t>이것은 인육이다... 우에엑!</t>
+    <t>이것은 인육이다… 우웨엑!</t>
   </si>
   <si>
     <t>Eeeek! It's human flesh!</t>
@@ -6773,7 +6773,7 @@
     <t>food_human_whine</t>
   </si>
   <si>
-    <t>인육을 좋아하게 되었지만...</t>
+    <t>인육이 더 좋은데…</t>
   </si>
   <si>
     <t>You would've rather eaten human flesh.</t>
@@ -6833,7 +6833,7 @@
     <t>newIng</t>
   </si>
   <si>
-    <t>이것은 처음보는 아이템이다.</t>
+    <t>이것은 처음 보는 아이템이다.</t>
   </si>
   <si>
     <t>It's a new item.</t>
@@ -6872,7 +6872,7 @@
     <t>dump_tooFar</t>
   </si>
   <si>
-    <t>#1은(는) 너무 멀리있다.</t>
+    <t>#1은(는) 너무 멀리 있다.</t>
   </si>
   <si>
     <t>#1 are/is too far away.</t>
@@ -6944,7 +6944,7 @@
     <t>ageUp</t>
   </si>
   <si>
-    <t>#1은(는) 늙고 지친듯한 기분이 들었다.</t>
+    <t>#1은(는) 늙고 지친 듯한 기분이 들었다.</t>
   </si>
   <si>
     <t>#1 feel(s) old and tired.</t>
@@ -7094,7 +7094,7 @@
     <t>trap_teleport</t>
   </si>
   <si>
-    <t>주변 #1의 공간이 왜곡되었다.</t>
+    <t>#1 주변의 공간이 왜곡되었다.</t>
   </si>
   <si>
     <t>The space around #1 distorts.</t>
@@ -7118,7 +7118,7 @@
     <t>trap_sleep</t>
   </si>
   <si>
-    <t>최면가스를 퍼지기 시작했다.</t>
+    <t>최면가스가 퍼지기 시작했다.</t>
   </si>
   <si>
     <t>Sleeping gas spreads.</t>
@@ -7130,7 +7130,7 @@
     <t>trap_spear</t>
   </si>
   <si>
-    <t>창이 지면에서 날아왔다.</t>
+    <t>지면에서 창이 날아왔다.</t>
   </si>
   <si>
     <t>Several spears fly out from the ground.</t>
@@ -8007,7 +8007,7 @@
     <t>Alpha 20.48</t>
   </si>
   <si>
-    <t>#1의 저주가 산산히 부셔졌다.</t>
+    <t>#1의 저주가 산산히 부서졌다.</t>
   </si>
   <si>
     <t>#your hexes shatter.</t>
@@ -8685,7 +8685,7 @@
     <t>shipped_none</t>
   </si>
   <si>
-    <t>합계 #1개의 물품을 출하했지만, 아무것도 받지 못했다...</t>
+    <t>합계 #1개의 물품을 출하했지만, 아무것도 받지 못했다…</t>
   </si>
   <si>
     <t>You ship a total of #1 items/item but receive nothing in return...</t>
@@ -8795,7 +8795,7 @@
   <si>
     <t>#2은(는) #1을(를) 무시했다.
 #1의 목소리는 공허하게 사라졌다.
-아무것도 일어나지 않는다...
+아무것도 일어나지 않는다…
 침묵만이 #1의 기도에 대답했다.
 #1은(는) 허무한 기분이 들었다.</t>
   </si>
@@ -9111,7 +9111,7 @@
     <t>party_sell</t>
   </si>
   <si>
-    <t>#1은(는) 백팩 안의 전리품을 팔아넘겨, #2오렌을 획득했다.</t>
+    <t>#1은(는) 백팩 안의 전리품을 팔아넘겨, #2 오렌을 획득했다.</t>
   </si>
   <si>
     <t>#1 sell(s) the loot from #his backpack and earn(s) #2 orens.</t>
@@ -9195,7 +9195,7 @@
     <t>seedSpoiled</t>
   </si>
   <si>
-    <t>#1의 씨앗은 푸석푸석 바스러져버렸다.</t>
+    <t>#1의 씨앗은 푸석푸석 바스러져 버렸다.</t>
   </si>
   <si>
     <t>The seed crumbles as you pick.</t>
@@ -9231,7 +9231,7 @@
     <t>blend_love</t>
   </si>
   <si>
-    <t>당신은 양심의 가책을 느낀다...</t>
+    <t>당신은 양심의 가책을 느낀다…</t>
   </si>
   <si>
     <t>You feel little guilty...</t>
@@ -9255,7 +9255,7 @@
     <t>blend_curse</t>
   </si>
   <si>
-    <t>#1은(는) 녹슬어버렸다...</t>
+    <t>#1은(는) 녹슬어버렸다…</t>
   </si>
   <si>
     <t>#1 rust(s).</t>
@@ -9546,7 +9546,7 @@
     <t>badidea</t>
   </si>
   <si>
-    <t>그걸 현명하다고는 못하겠는데</t>
+    <t>그걸 현명하다고는 못 하겠는데.</t>
   </si>
   <si>
     <t>That's a bad idea.</t>
@@ -9690,7 +9690,7 @@
     <t>diary_sister_cat</t>
   </si>
   <si>
-    <t>아닛! 당신에게는 생이별한 피가 이어지지 않은 강아지 여동생이 있었다!</t>
+    <t>아닛! 당신에게는 생이별한 피가 이어지지 않은 고양이 여동생이 있었다!</t>
   </si>
   <si>
     <t>You suddenly realize you have a non-blood-related younger cat sister who had been living apart from you!</t>
@@ -9846,7 +9846,7 @@
     <t>time_warn_3</t>
   </si>
   <si>
-    <t>쿠미로미 「…괜찮... 겠지？」</t>
+    <t>쿠미로미 「…괜찮… 겠지?」</t>
   </si>
   <si>
     <t>Kumiromi worries, "Are you...okay..?"</t>
@@ -9873,7 +9873,7 @@
     <t>time_warn_5</t>
   </si>
   <si>
-    <t>피아마 「안 돼. 이대로라면... 너무 늦어버려…」</t>
+    <t>피아마 「안 돼. 이대로라면… 너무 늦어버려…」</t>
   </si>
   <si>
     <t>Fiama cries, "No...before it is too late..."</t>
@@ -10173,7 +10173,7 @@
     <t>Beta 22.6</t>
   </si>
   <si>
-    <t>수확이 끝났다. 당신은 총 무게 #1의 작물들을 납품 했다.</t>
+    <t>수확이 끝났다. 당신은 총 무게 #1의 작물들을 납품했다.</t>
   </si>
   <si>
     <t xml:space="preserve">The harvest has ended. You delivered crops weighing a total of #1. </t>
@@ -10326,7 +10326,7 @@
     <t>Beta 22.19</t>
   </si>
   <si>
-    <t>백팩 속에 침낭이 보이지 않는다. 명상 어빌리티를 사용하면 수면은 취하겠지만...</t>
+    <t>백팩 속에 침낭이 보이지 않는다. 명상 어빌리티를 사용하면 수면은 취하겠지만…</t>
   </si>
   <si>
     <t>There’s no bed in your backpack. You can use Meditate Ability to sleep but...</t>
@@ -10725,9 +10725,6 @@
     <t>gambleChest_broke</t>
   </si>
   <si>
-    <t>#1은(는) 부서졌다.</t>
-  </si>
-  <si>
     <t>#1 is destroyed.</t>
   </si>
   <si>
@@ -10932,7 +10929,7 @@
     <t>bug_hal</t>
   </si>
   <si>
-    <t>기다려... 이건 분명 환각일거야!</t>
+    <t>기다려… 이건 분명 환각일거야!</t>
   </si>
   <si>
     <t>Wait... this must be a hallucination!</t>
@@ -10997,7 +10994,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -11262,7 +11258,6 @@
     <col customWidth="1" min="1" max="3" width="16.0"/>
     <col customWidth="1" min="4" max="4" width="61.43"/>
     <col customWidth="1" min="5" max="6" width="16.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11581,7 +11576,7 @@
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -11700,7 +11695,7 @@
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -12044,7 +12039,7 @@
       <c r="C46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -12084,7 +12079,7 @@
       <c r="C48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -12104,7 +12099,7 @@
       <c r="C49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -12164,7 +12159,7 @@
       <c r="C52" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -12204,7 +12199,7 @@
       <c r="C54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -12224,7 +12219,7 @@
       <c r="C55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -12304,7 +12299,7 @@
       <c r="C59" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>237</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -12324,7 +12319,7 @@
       <c r="C60" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -12341,7 +12336,7 @@
       <c r="B61" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -12990,7 +12985,7 @@
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>392</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -13243,7 +13238,7 @@
       <c r="C110" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -13343,7 +13338,7 @@
       <c r="C115" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>471</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -13377,7 +13372,7 @@
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="3" t="s">
         <v>479</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -13722,7 +13717,7 @@
       <c r="C135" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -14056,7 +14051,7 @@
       <c r="B152" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="3" t="s">
         <v>626</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -14110,7 +14105,7 @@
       <c r="B155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="3" t="s">
         <v>639</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -14348,7 +14343,7 @@
       <c r="B169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="1" t="s">
         <v>696</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -14939,7 +14934,7 @@
         <v>504</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>792</v>
@@ -14959,7 +14954,7 @@
         <v>504</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>796</v>
@@ -14979,7 +14974,7 @@
         <v>504</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>800</v>
@@ -14999,7 +14994,7 @@
         <v>504</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>804</v>
@@ -15019,7 +15014,7 @@
         <v>504</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>808</v>
@@ -16417,7 +16412,7 @@
       <c r="B275" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -16536,7 +16531,7 @@
       <c r="B282" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="E282" s="1" t="s">
@@ -16587,7 +16582,7 @@
       <c r="B285" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="D285" s="3" t="s">
         <v>1138</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -16604,7 +16599,7 @@
       <c r="B286" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="D286" s="3" t="s">
         <v>1142</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -17225,7 +17220,7 @@
       <c r="B322" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="3" t="s">
         <v>1292</v>
       </c>
       <c r="E322" s="1" t="s">
@@ -17242,7 +17237,7 @@
       <c r="B323" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="D323" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="E323" s="1" t="s">
@@ -17259,7 +17254,7 @@
       <c r="B324" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="D324" s="3" t="s">
         <v>1300</v>
       </c>
       <c r="E324" s="1" t="s">
@@ -17514,7 +17509,7 @@
       <c r="B339" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="E339" s="1" t="s">
@@ -18048,7 +18043,7 @@
       <c r="B369" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D369" s="1" t="s">
         <v>1476</v>
       </c>
       <c r="E369" s="1" t="s">
@@ -18065,7 +18060,7 @@
       <c r="B370" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D370" s="3" t="s">
+      <c r="D370" s="1" t="s">
         <v>1481</v>
       </c>
       <c r="E370" s="1" t="s">
@@ -18504,7 +18499,7 @@
       <c r="B396" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D396" s="1" t="s">
+      <c r="D396" s="3" t="s">
         <v>1589</v>
       </c>
       <c r="E396" s="1" t="s">
@@ -19116,7 +19111,7 @@
       <c r="B432" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D432" s="1" t="s">
+      <c r="D432" s="3" t="s">
         <v>1733</v>
       </c>
       <c r="E432" s="1" t="s">
@@ -19371,7 +19366,7 @@
       <c r="B447" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D447" s="1" t="s">
+      <c r="D447" s="3" t="s">
         <v>1788</v>
       </c>
       <c r="E447" s="1" t="s">
@@ -19507,7 +19502,7 @@
       <c r="B455" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D455" s="1" t="s">
+      <c r="D455" s="3" t="s">
         <v>1821</v>
       </c>
       <c r="E455" s="1" t="s">
@@ -19694,7 +19689,7 @@
       <c r="B466" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D466" s="3" t="s">
+      <c r="D466" s="1" t="s">
         <v>1865</v>
       </c>
       <c r="E466" s="1" t="s">
@@ -19745,7 +19740,7 @@
       <c r="B469" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D469" s="3" t="s">
+      <c r="D469" s="1" t="s">
         <v>1877</v>
       </c>
       <c r="E469" s="1" t="s">
@@ -19949,7 +19944,7 @@
       <c r="B481" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="D481" s="1" t="s">
+      <c r="D481" s="3" t="s">
         <v>1926</v>
       </c>
       <c r="E481" s="1" t="s">
@@ -20862,7 +20857,7 @@
       <c r="C534" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D534" s="1" t="s">
+      <c r="D534" s="3" t="s">
         <v>2137</v>
       </c>
       <c r="E534" s="1" t="s">
@@ -20882,7 +20877,7 @@
       <c r="C535" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D535" s="1" t="s">
+      <c r="D535" s="3" t="s">
         <v>2141</v>
       </c>
       <c r="E535" s="1" t="s">
@@ -21082,7 +21077,7 @@
       <c r="C545" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D545" s="1" t="s">
+      <c r="D545" s="3" t="s">
         <v>2181</v>
       </c>
       <c r="E545" s="1" t="s">
@@ -21122,7 +21117,7 @@
       <c r="C547" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D547" s="1" t="s">
+      <c r="D547" s="3" t="s">
         <v>2189</v>
       </c>
       <c r="E547" s="1" t="s">
@@ -21142,7 +21137,7 @@
       <c r="C548" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D548" s="1" t="s">
+      <c r="D548" s="3" t="s">
         <v>2193</v>
       </c>
       <c r="E548" s="1" t="s">
@@ -21162,7 +21157,7 @@
       <c r="C549" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D549" s="1" t="s">
+      <c r="D549" s="3" t="s">
         <v>2197</v>
       </c>
       <c r="E549" s="1" t="s">
@@ -21182,7 +21177,7 @@
       <c r="C550" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="D550" s="1" t="s">
+      <c r="D550" s="3" t="s">
         <v>2202</v>
       </c>
       <c r="E550" s="1" t="s">
@@ -21222,7 +21217,7 @@
       <c r="C552" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D552" s="1" t="s">
+      <c r="D552" s="3" t="s">
         <v>2210</v>
       </c>
       <c r="E552" s="1" t="s">
@@ -21242,7 +21237,7 @@
       <c r="C553" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D553" s="1" t="s">
+      <c r="D553" s="3" t="s">
         <v>2214</v>
       </c>
       <c r="E553" s="1" t="s">
@@ -21310,7 +21305,7 @@
       <c r="B557" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D557" s="1" t="s">
+      <c r="D557" s="3" t="s">
         <v>2230</v>
       </c>
       <c r="E557" s="1" t="s">
@@ -21361,7 +21356,7 @@
       <c r="B560" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D560" s="1" t="s">
+      <c r="D560" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="E560" s="1" t="s">
@@ -21463,7 +21458,7 @@
       <c r="B566" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D566" s="1" t="s">
+      <c r="D566" s="3" t="s">
         <v>2267</v>
       </c>
       <c r="E566" s="1" t="s">
@@ -21582,7 +21577,7 @@
       <c r="B573" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D573" s="3" t="s">
+      <c r="D573" s="1" t="s">
         <v>2295</v>
       </c>
       <c r="E573" s="1" t="s">
@@ -21684,7 +21679,7 @@
       <c r="B579" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D579" s="1" t="s">
+      <c r="D579" s="3" t="s">
         <v>2317</v>
       </c>
       <c r="E579" s="1" t="s">
@@ -21718,7 +21713,7 @@
       <c r="B581" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D581" s="1" t="s">
+      <c r="D581" s="3" t="s">
         <v>2325</v>
       </c>
       <c r="E581" s="1" t="s">
@@ -21735,7 +21730,7 @@
       <c r="B582" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D582" s="1" t="s">
+      <c r="D582" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="E582" s="1" t="s">
@@ -22368,7 +22363,7 @@
       <c r="B618" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D618" s="3" t="s">
+      <c r="D618" s="1" t="s">
         <v>2467</v>
       </c>
       <c r="E618" s="1" t="s">
@@ -22708,7 +22703,7 @@
       <c r="B638" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D638" s="3" t="s">
+      <c r="D638" s="1" t="s">
         <v>2548</v>
       </c>
       <c r="E638" s="1" t="s">
@@ -22946,7 +22941,7 @@
       <c r="B652" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="D652" s="1" t="s">
+      <c r="D652" s="3" t="s">
         <v>2607</v>
       </c>
       <c r="E652" s="1" t="s">
@@ -23354,7 +23349,7 @@
       <c r="B676" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="D676" s="3" t="s">
+      <c r="D676" s="1" t="s">
         <v>2703</v>
       </c>
       <c r="E676" s="1" t="s">
@@ -23881,7 +23876,7 @@
       <c r="B707" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D707" s="3" t="s">
+      <c r="D707" s="1" t="s">
         <v>2823</v>
       </c>
       <c r="E707" s="1" t="s">
@@ -23915,7 +23910,7 @@
       <c r="B709" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D709" s="1" t="s">
+      <c r="D709" s="3" t="s">
         <v>2831</v>
       </c>
       <c r="E709" s="1" t="s">
@@ -24068,7 +24063,7 @@
       <c r="B718" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D718" s="1" t="s">
+      <c r="D718" s="3" t="s">
         <v>2867</v>
       </c>
       <c r="E718" s="1" t="s">
@@ -24085,7 +24080,7 @@
       <c r="B719" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D719" s="3" t="s">
+      <c r="D719" s="1" t="s">
         <v>2871</v>
       </c>
       <c r="E719" s="1" t="s">
@@ -24476,7 +24471,7 @@
       <c r="B742" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D742" s="1" t="s">
+      <c r="D742" s="3" t="s">
         <v>2964</v>
       </c>
       <c r="E742" s="1" t="s">
@@ -24595,7 +24590,7 @@
       <c r="B749" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D749" s="1" t="s">
+      <c r="D749" s="3" t="s">
         <v>2992</v>
       </c>
       <c r="E749" s="1" t="s">
@@ -24646,7 +24641,7 @@
       <c r="B752" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D752" s="1" t="s">
+      <c r="D752" s="3" t="s">
         <v>3004</v>
       </c>
       <c r="E752" s="1" t="s">
@@ -24680,7 +24675,7 @@
       <c r="B754" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D754" s="1" t="s">
+      <c r="D754" s="3" t="s">
         <v>3012</v>
       </c>
       <c r="E754" s="1" t="s">
@@ -25094,7 +25089,7 @@
       <c r="B778" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="D778" s="1" t="s">
+      <c r="D778" s="3" t="s">
         <v>3109</v>
       </c>
       <c r="E778" s="1" t="s">
@@ -25298,7 +25293,7 @@
       <c r="B790" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="D790" s="1" t="s">
+      <c r="D790" s="3" t="s">
         <v>3157</v>
       </c>
       <c r="E790" s="1" t="s">
@@ -25468,7 +25463,7 @@
       <c r="B800" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D800" s="3" t="s">
+      <c r="D800" s="1" t="s">
         <v>3197</v>
       </c>
       <c r="E800" s="1" t="s">
@@ -25485,7 +25480,7 @@
       <c r="B801" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D801" s="3" t="s">
+      <c r="D801" s="1" t="s">
         <v>3201</v>
       </c>
       <c r="E801" s="1" t="s">
@@ -25536,7 +25531,7 @@
       <c r="B804" s="1" t="s">
         <v>3213</v>
       </c>
-      <c r="D804" s="3" t="s">
+      <c r="D804" s="1" t="s">
         <v>3214</v>
       </c>
       <c r="E804" s="1" t="s">
@@ -25570,7 +25565,7 @@
       <c r="B806" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D806" s="3" t="s">
+      <c r="D806" s="1" t="s">
         <v>3222</v>
       </c>
       <c r="E806" s="1" t="s">
@@ -25587,7 +25582,7 @@
       <c r="B807" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D807" s="3" t="s">
+      <c r="D807" s="1" t="s">
         <v>3226</v>
       </c>
       <c r="E807" s="1" t="s">
@@ -25604,7 +25599,7 @@
       <c r="B808" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D808" s="3" t="s">
+      <c r="D808" s="1" t="s">
         <v>3230</v>
       </c>
       <c r="E808" s="1" t="s">
@@ -25621,7 +25616,7 @@
       <c r="B809" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D809" s="3" t="s">
+      <c r="D809" s="1" t="s">
         <v>3234</v>
       </c>
       <c r="E809" s="1" t="s">
@@ -25638,7 +25633,7 @@
       <c r="B810" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D810" s="3" t="s">
+      <c r="D810" s="1" t="s">
         <v>3238</v>
       </c>
       <c r="E810" s="1" t="s">
@@ -25723,7 +25718,7 @@
       <c r="B815" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="D815" s="3" t="s">
+      <c r="D815" s="1" t="s">
         <v>3259</v>
       </c>
       <c r="E815" s="1" t="s">
@@ -25859,7 +25854,7 @@
       <c r="B823" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="D823" s="3" t="s">
+      <c r="D823" s="1" t="s">
         <v>3292</v>
       </c>
       <c r="E823" s="1" t="s">
@@ -25961,7 +25956,7 @@
       <c r="B829" s="1" t="s">
         <v>3317</v>
       </c>
-      <c r="D829" s="1" t="s">
+      <c r="D829" s="3" t="s">
         <v>3318</v>
       </c>
       <c r="E829" s="1" t="s">
@@ -26165,7 +26160,7 @@
       <c r="B841" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="D841" s="1" t="s">
+      <c r="D841" s="3" t="s">
         <v>3369</v>
       </c>
       <c r="E841" s="1" t="s">
@@ -26216,7 +26211,7 @@
       <c r="B844" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="D844" s="3" t="s">
+      <c r="D844" s="1" t="s">
         <v>3383</v>
       </c>
       <c r="E844" s="1" t="s">
@@ -26301,7 +26296,7 @@
       <c r="B849" s="1" t="s">
         <v>3405</v>
       </c>
-      <c r="D849" s="3" t="s">
+      <c r="D849" s="1" t="s">
         <v>3406</v>
       </c>
       <c r="E849" s="1" t="s">
@@ -26369,7 +26364,7 @@
       <c r="B853" s="1" t="s">
         <v>3423</v>
       </c>
-      <c r="D853" s="3" t="s">
+      <c r="D853" s="1" t="s">
         <v>3424</v>
       </c>
       <c r="E853" s="1" t="s">
@@ -26420,7 +26415,7 @@
       <c r="B856" s="1" t="s">
         <v>3423</v>
       </c>
-      <c r="D856" s="3" t="s">
+      <c r="D856" s="1" t="s">
         <v>3436</v>
       </c>
       <c r="E856" s="1" t="s">
@@ -26437,7 +26432,7 @@
       <c r="B857" s="1" t="s">
         <v>3423</v>
       </c>
-      <c r="D857" s="3" t="s">
+      <c r="D857" s="1" t="s">
         <v>3440</v>
       </c>
       <c r="E857" s="1" t="s">
@@ -26624,7 +26619,7 @@
       <c r="B868" s="1" t="s">
         <v>3484</v>
       </c>
-      <c r="D868" s="3" t="s">
+      <c r="D868" s="1" t="s">
         <v>3485</v>
       </c>
       <c r="E868" s="1" t="s">
@@ -26641,7 +26636,7 @@
       <c r="B869" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D869" s="3" t="s">
+      <c r="D869" s="1" t="s">
         <v>3489</v>
       </c>
       <c r="E869" s="1" t="s">
@@ -26693,10 +26688,10 @@
         <v>3493</v>
       </c>
       <c r="D872" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E872" s="1" t="s">
         <v>3502</v>
-      </c>
-      <c r="E872" s="1" t="s">
-        <v>3503</v>
       </c>
       <c r="F872" s="1" t="s">
         <v>1735</v>
@@ -26704,342 +26699,342 @@
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="1" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D873" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E873" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="E873" s="1" t="s">
+      <c r="F873" s="1" t="s">
         <v>3506</v>
-      </c>
-      <c r="F873" s="1" t="s">
-        <v>3507</v>
       </c>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="1" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D874" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E874" s="1" t="s">
         <v>3509</v>
       </c>
-      <c r="E874" s="1" t="s">
+      <c r="F874" s="1" t="s">
         <v>3510</v>
-      </c>
-      <c r="F874" s="1" t="s">
-        <v>3511</v>
       </c>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="1" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="D875" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E875" s="1" t="s">
         <v>3513</v>
       </c>
-      <c r="E875" s="1" t="s">
+      <c r="F875" s="1" t="s">
         <v>3514</v>
-      </c>
-      <c r="F875" s="1" t="s">
-        <v>3515</v>
       </c>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="1" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="D876" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E876" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="E876" s="1" t="s">
+      <c r="F876" s="1" t="s">
         <v>3518</v>
-      </c>
-      <c r="F876" s="1" t="s">
-        <v>3519</v>
       </c>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B877" s="1" t="s">
         <v>3520</v>
       </c>
-      <c r="B877" s="1" t="s">
+      <c r="D877" s="1" t="s">
         <v>3521</v>
       </c>
-      <c r="D877" s="1" t="s">
+      <c r="E877" s="1" t="s">
         <v>3522</v>
       </c>
-      <c r="E877" s="1" t="s">
+      <c r="F877" s="1" t="s">
         <v>3523</v>
-      </c>
-      <c r="F877" s="1" t="s">
-        <v>3524</v>
       </c>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D878" s="1" t="s">
         <v>3525</v>
       </c>
-      <c r="B878" s="1" t="s">
-        <v>3521</v>
-      </c>
-      <c r="D878" s="1" t="s">
+      <c r="E878" s="1" t="s">
         <v>3526</v>
       </c>
-      <c r="E878" s="1" t="s">
+      <c r="F878" s="1" t="s">
         <v>3527</v>
-      </c>
-      <c r="F878" s="1" t="s">
-        <v>3528</v>
       </c>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B879" s="1" t="s">
         <v>3529</v>
       </c>
-      <c r="B879" s="1" t="s">
+      <c r="D879" s="1" t="s">
         <v>3530</v>
       </c>
-      <c r="D879" s="1" t="s">
+      <c r="E879" s="1" t="s">
         <v>3531</v>
       </c>
-      <c r="E879" s="1" t="s">
+      <c r="F879" s="1" t="s">
         <v>3532</v>
-      </c>
-      <c r="F879" s="1" t="s">
-        <v>3533</v>
       </c>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D880" s="1" t="s">
         <v>3534</v>
       </c>
-      <c r="B880" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="D880" s="1" t="s">
+      <c r="E880" s="1" t="s">
         <v>3535</v>
       </c>
-      <c r="E880" s="1" t="s">
+      <c r="F880" s="1" t="s">
         <v>3536</v>
-      </c>
-      <c r="F880" s="1" t="s">
-        <v>3537</v>
       </c>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D881" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="B881" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="D881" s="1" t="s">
+      <c r="E881" s="1" t="s">
         <v>3539</v>
       </c>
-      <c r="E881" s="1" t="s">
+      <c r="F881" s="1" t="s">
         <v>3540</v>
-      </c>
-      <c r="F881" s="1" t="s">
-        <v>3541</v>
       </c>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D882" s="1" t="s">
         <v>3542</v>
       </c>
-      <c r="B882" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="D882" s="1" t="s">
+      <c r="E882" s="1" t="s">
         <v>3543</v>
       </c>
-      <c r="E882" s="1" t="s">
+      <c r="F882" s="1" t="s">
         <v>3544</v>
-      </c>
-      <c r="F882" s="1" t="s">
-        <v>3545</v>
       </c>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D883" s="1" t="s">
         <v>3546</v>
       </c>
-      <c r="B883" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="D883" s="1" t="s">
+      <c r="E883" s="1" t="s">
         <v>3547</v>
       </c>
-      <c r="E883" s="1" t="s">
+      <c r="F883" s="1" t="s">
         <v>3548</v>
-      </c>
-      <c r="F883" s="1" t="s">
-        <v>3549</v>
       </c>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D884" s="1" t="s">
         <v>3550</v>
       </c>
-      <c r="B884" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="D884" s="1" t="s">
+      <c r="E884" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="E884" s="1" t="s">
+      <c r="F884" s="1" t="s">
         <v>3552</v>
-      </c>
-      <c r="F884" s="1" t="s">
-        <v>3553</v>
       </c>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D885" s="1" t="s">
         <v>3554</v>
       </c>
-      <c r="B885" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="D885" s="1" t="s">
+      <c r="E885" s="1" t="s">
         <v>3555</v>
       </c>
-      <c r="E885" s="1" t="s">
+      <c r="F885" s="1" t="s">
         <v>3556</v>
-      </c>
-      <c r="F885" s="1" t="s">
-        <v>3557</v>
       </c>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="1" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>567</v>
       </c>
       <c r="D886" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E886" s="1" t="s">
         <v>3559</v>
       </c>
-      <c r="E886" s="1" t="s">
+      <c r="F886" s="1" t="s">
         <v>3560</v>
-      </c>
-      <c r="F886" s="1" t="s">
-        <v>3561</v>
       </c>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>558</v>
       </c>
       <c r="D887" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="E887" s="1" t="s">
         <v>3563</v>
       </c>
-      <c r="E887" s="1" t="s">
+      <c r="F887" s="1" t="s">
         <v>3564</v>
-      </c>
-      <c r="F887" s="1" t="s">
-        <v>3565</v>
       </c>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="1" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B888" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D888" s="3" t="s">
+      <c r="D888" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E888" s="1" t="s">
         <v>3567</v>
       </c>
-      <c r="E888" s="1" t="s">
+      <c r="F888" s="1" t="s">
         <v>3568</v>
-      </c>
-      <c r="F888" s="1" t="s">
-        <v>3569</v>
       </c>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="1" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D889" s="1" t="s">
+      <c r="D889" s="3" t="s">
+        <v>3570</v>
+      </c>
+      <c r="E889" s="1" t="s">
         <v>3571</v>
       </c>
-      <c r="E889" s="1" t="s">
+      <c r="F889" s="1" t="s">
         <v>3572</v>
-      </c>
-      <c r="F889" s="1" t="s">
-        <v>3573</v>
       </c>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="D890" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="E890" s="1" t="s">
         <v>3575</v>
       </c>
-      <c r="E890" s="1" t="s">
+      <c r="F890" s="1" t="s">
         <v>3576</v>
-      </c>
-      <c r="F890" s="1" t="s">
-        <v>3577</v>
       </c>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="1" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="B891" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D891" s="3" t="s">
+      <c r="D891" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="E891" s="1" t="s">
         <v>3579</v>
       </c>
-      <c r="E891" s="1" t="s">
+      <c r="F891" s="1" t="s">
         <v>3580</v>
-      </c>
-      <c r="F891" s="1" t="s">
-        <v>3581</v>
       </c>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="1" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="B892" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="D892" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="E892" s="1" t="s">
         <v>3583</v>
       </c>
-      <c r="E892" s="1" t="s">
+      <c r="F892" s="1" t="s">
         <v>3584</v>
-      </c>
-      <c r="F892" s="1" t="s">
-        <v>3585</v>
       </c>
     </row>
     <row r="893" ht="15.75" customHeight="1"/>

--- a/_Lang_Korean/Lang/KR/Game/Game.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Game.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="3585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="3585">
   <si>
     <t>id</t>
   </si>
@@ -966,7 +966,7 @@
     <t>Alpha 21.21</t>
   </si>
   <si>
-    <t>그건 못 훔쳐</t>
+    <t>그건 못 훔쳐.</t>
   </si>
   <si>
     <t>It's impossible.</t>
@@ -1143,7 +1143,7 @@
     <t>tooDark</t>
   </si>
   <si>
-    <t>워어- 깜깜해서 아무것도 안보여!</t>
+    <t>워어- 깜깜해서 아무것도 안 보여!</t>
   </si>
   <si>
     <t>It's too dark here!</t>
@@ -1539,7 +1539,7 @@
     <t>Alpha 16.1</t>
   </si>
   <si>
-    <t>#1은(는) 저항했다</t>
+    <t>#1은(는) 저항했다.</t>
   </si>
   <si>
     <t>#1 resist(s).</t>
@@ -1899,7 +1899,7 @@
     <t>spell_earthquake_hit</t>
   </si>
   <si>
-    <t>파동은 #2을(를) 집어 삼켰다.</t>
+    <t>파동은 #2을(를) 집어삼켰다.</t>
   </si>
   <si>
     <t>The wave engulfs #2.</t>
@@ -2136,7 +2136,7 @@
     <t>invalidAction</t>
   </si>
   <si>
-    <t>여기서는 못해.
+    <t>여기서는 못 해.
 안 돼!</t>
   </si>
   <si>
@@ -2181,7 +2181,7 @@
     <t>calledGuard</t>
   </si>
   <si>
-    <t>#1은(는) 가드를 불렀다!</t>
+    <t>#1은(는) 경비병을 불렀다!</t>
   </si>
   <si>
     <t>#1 call(s) guards!</t>
@@ -2217,7 +2217,7 @@
     <t>spotMedalStep</t>
   </si>
   <si>
-    <t>*빤짝*</t>
+    <t>*반짝*</t>
   </si>
   <si>
     <t>*twinkle*</t>
@@ -2761,7 +2761,7 @@
   </si>
   <si>
     <t>죽였다.
-산산 조각난 육편으로 바꿨다.
+산산조각난 육편으로 바꿨다.
 다진고기로 만들었다.
 파괴했다.</t>
   </si>
@@ -3306,7 +3306,7 @@
     <t>vopal</t>
   </si>
   <si>
-    <t>*싹뚝*</t>
+    <t>*싹둑*</t>
   </si>
   <si>
     <t>*vopal*</t>
@@ -3318,7 +3318,7 @@
     <t>materialChanged</t>
   </si>
   <si>
-    <t>소재 #1은(는) #2으(로) 변화되었다.</t>
+    <t>소재 #1은(는) #2으(로) 변화했다.</t>
   </si>
   <si>
     <t>#1 transform(s) into #2.</t>
@@ -3900,7 +3900,7 @@
     <t>dingExp_pc</t>
   </si>
   <si>
-    <t>당신은 경험을 쌓아 피트 포인트를 획득했다</t>
+    <t>당신은 경험을 쌓아 피트 포인트를 획득했다.</t>
   </si>
   <si>
     <t>You have gained experience and acquired a feat point.</t>
@@ -4167,7 +4167,7 @@
     <t>gachaAdd</t>
   </si>
   <si>
-    <t>#1 개인정보를 하스스톤에 기억했다.</t>
+    <t>#1의 개인정보를 하스스톤에 기억했다.</t>
   </si>
   <si>
     <t>You store #1's personal information in the hearth stone.</t>
@@ -4221,7 +4221,7 @@
     <t>Alpha 20.10</t>
   </si>
   <si>
-    <t>#2은 #1오렌을 납세했다.</t>
+    <t>#2은 #1 오렌을 납세했다.</t>
   </si>
   <si>
     <t>#2 pays a tax of #1 orens/oren.</t>
@@ -4356,7 +4356,7 @@
     <t>noRecipes</t>
   </si>
   <si>
-    <t>알고있는 레시피가 없어.</t>
+    <t>알고 있는 레시피가 없어.</t>
   </si>
   <si>
     <t>You don't know any recipes.</t>
@@ -4446,9 +4446,6 @@
     <t>unequipCursed</t>
   </si>
   <si>
-    <t>#1은(는) 저항했다.</t>
-  </si>
-  <si>
     <t>unrestrained</t>
   </si>
   <si>
@@ -4488,7 +4485,7 @@
     <t>errorWrongType</t>
   </si>
   <si>
-    <t>이런 종류의 아이템은 넣을 수 없어</t>
+    <t>이런 종류의 아이템은 넣을 수 없어.</t>
   </si>
   <si>
     <t>The item type is inappropriate for the container.</t>
@@ -4515,7 +4512,7 @@
     <t>Beta 22.27</t>
   </si>
   <si>
-    <t>너무 무거워서 안 돼!</t>
+    <t>너무 무거워서 무리다!</t>
   </si>
   <si>
     <t>Too heavy to do that!</t>
@@ -4587,7 +4584,7 @@
     <t>returnOverweight</t>
   </si>
   <si>
-    <t>어디선가 목소리가 들렸다. 「미안한데 중량오버다」</t>
+    <t>어디선가 목소리가 들렸다. 「미안한데 중량 오버다」</t>
   </si>
   <si>
     <t>Someone shouts, "Sorry, overweight."</t>
@@ -4611,7 +4608,7 @@
     <t>returnFail</t>
   </si>
   <si>
-    <t>당신은 무언가에 붙잡혔다고 느꼈지만, 기분 탓이였다.</t>
+    <t>당신은 무언가에 붙잡혔다고 느꼈지만, 기분 탓이었다.</t>
   </si>
   <si>
     <t>You imagine something pulls your neck.</t>
@@ -4665,6 +4662,9 @@
     <t>EA 23.26 fix 2</t>
   </si>
   <si>
+    <t>은행에 #1이(가) 입금되었다.</t>
+  </si>
+  <si>
     <t>Your bank account receives a deposit of #1.</t>
   </si>
   <si>
@@ -4692,7 +4692,7 @@
     <t>Beta 22.23</t>
   </si>
   <si>
-    <t>감사선물이 미실리아에서 발송되었다.</t>
+    <t>감사 선물이 미실리아에서 발송되었다.</t>
   </si>
   <si>
     <t>Mysilia sends you a token of gratitude.</t>
@@ -4911,7 +4911,7 @@
     <t>skillbook_knownSkill</t>
   </si>
   <si>
-    <t>이 기점은 이미 그 지식을 알고있다.</t>
+    <t>이 기점은 이미 그 지식을 알고 있다.</t>
   </si>
   <si>
     <t>It is already known.</t>
@@ -5208,7 +5208,7 @@
     <t>noTargetFound</t>
   </si>
   <si>
-    <t>타겟으로 삼을만한 보이지 않는다.</t>
+    <t>타겟으로 삼을만한 게 보이지 않는다.</t>
   </si>
   <si>
     <t>There is nothing to target.</t>
@@ -5748,7 +5748,7 @@
     <t>slot_win</t>
   </si>
   <si>
-    <t>당신은 #1에게서 승리했다.</t>
+    <t>당신은 #1을(를) 땄다.</t>
   </si>
   <si>
     <t>You win #1.</t>
@@ -5943,7 +5943,7 @@
     <t>uncurseEQ</t>
   </si>
   <si>
-    <t>#1의 장비품 은 하얀 빛으로 감싸였다.</t>
+    <t>#1의 장비품은 하얀 빛으로 감싸였다.</t>
   </si>
   <si>
     <t>#your equipment are surrounded by a white aura.</t>
@@ -6225,7 +6225,7 @@
     <t>lighten</t>
   </si>
   <si>
-    <t>#2은(는) 날개 생긴 것처럼 가벼워졌다.</t>
+    <t>#2은(는) 날개가 생긴 것처럼 가벼워졌다.</t>
   </si>
   <si>
     <t>#2 becomes light as a feather.</t>
@@ -6249,7 +6249,7 @@
     <t>lighten_curse</t>
   </si>
   <si>
-    <t>#2은(는) 점점 무거워졌다.</t>
+    <t>#2은(는) 묵직해졌다.</t>
   </si>
   <si>
     <t>#2 becomes heavy.</t>
@@ -6285,7 +6285,7 @@
     <t>use_mahjong</t>
   </si>
   <si>
-    <t>#1은(는) 패를 잘랐다.</t>
+    <t>#1은(는) 패를 버렸다.</t>
   </si>
   <si>
     <t>#1 discard(s) a tile.</t>
@@ -6381,7 +6381,7 @@
     <t>idle_butcher</t>
   </si>
   <si>
-    <t>#1은(는) 기쁜듯이 고기를 손질했다.</t>
+    <t>#1은(는) 기쁜 듯이 고기를 손질했다.</t>
   </si>
   <si>
     <t>#1 process(es) the meat with joy.</t>
@@ -6453,7 +6453,7 @@
     <t>killcat</t>
   </si>
   <si>
-    <t>당신은 심장에 고통을 느꼈다.</t>
+    <t>당신은 마음이 아프다.</t>
   </si>
   <si>
     <t>Your heart aches.</t>
@@ -6496,7 +6496,7 @@
   </si>
   <si>
     <t>맛없어!
-으윽... 배탈이 날것 같아
+으윽... 배탈이 날 것 같아.
 끔찍한 맛이야!</t>
   </si>
   <si>
@@ -6563,7 +6563,7 @@
   <si>
     <t>최고의 맛이다!
 말 그대로 천상의 맛이다!
-승천할듯한 맛이다!
+승천할 듯한 맛이다!
 중독될 것 같은 맛이다!</t>
   </si>
   <si>
@@ -6582,8 +6582,8 @@
     <t>food_bad2</t>
   </si>
   <si>
-    <t>#1은(는) 괴로운듯한 얼굴을 했다
-#1은(는) 토할것 같은 표정을 지었다.</t>
+    <t>#1은(는) 괴로운 듯한 얼굴을 했다
+#1은(는) 토할 것 같은 표정을 지었다.</t>
   </si>
   <si>
     <t>#1 make(s) a bitter face.
@@ -6612,7 +6612,7 @@
   </si>
   <si>
     <t>#1은(는) 배를 쓰다듬었다.
-#1은(는) 작게 즐거운 표정을 지었다.</t>
+#1은(는) 조금 기쁜 듯한 표정을 지었다.</t>
   </si>
   <si>
     <t>#1 rub(s) #his belly.
@@ -6722,7 +6722,7 @@
     <t>food_raw_powder</t>
   </si>
   <si>
-    <t>가루맛이 난다…</t>
+    <t>가루 맛이 난다…</t>
   </si>
   <si>
     <t>It has a powdery taste...</t>
@@ -6788,7 +6788,7 @@
     <t>#1은(는) 갑자기 춤을 추기 시작했다.
 #1은(는) 입은 것을 벗기 시작했다.
 #1은(는) 빙글빙글 돌기 시작했다.
-#1은(는) 괴음을 냈다.
+#1은(는) 괴상한 소리를 냈다.
 #1은(는) 혼자서 실실 웃었다.</t>
   </si>
   <si>
@@ -6809,7 +6809,7 @@
     <t>fear</t>
   </si>
   <si>
-    <t>#1은(는) 겁에질렸다.</t>
+    <t>#1은(는) 겁에 질렸다.</t>
   </si>
   <si>
     <t>#1 are/is frightened.</t>
@@ -7385,7 +7385,7 @@
     <t>electricity_recover</t>
   </si>
   <si>
-    <t>#1은(는) 복구 되었다.</t>
+    <t>#1은(는) 복구되었다.</t>
   </si>
   <si>
     <t>#1 start(s) to work again.</t>
@@ -7397,7 +7397,7 @@
     <t>daggerCursed</t>
   </si>
   <si>
-    <t>검에 덮힌 저주가 당신의 기도를 방해했다.</t>
+    <t>검에 덮인 저주가 당신의 기도를 방해했다.</t>
   </si>
   <si>
     <t>The curse that befell the dagger hinderes your prayers.</t>
@@ -7670,7 +7670,7 @@
     <t>shoes_on</t>
   </si>
   <si>
-    <t>#1은(는) 신발을 신었다</t>
+    <t>#1은(는) 신발을 신었다.</t>
   </si>
   <si>
     <t>#1 put(s) on #his shoes.</t>
@@ -7682,7 +7682,7 @@
     <t>shoes_off</t>
   </si>
   <si>
-    <t>#1은(는) 신발을 벗었다</t>
+    <t>#1은(는) 신발을 벗었다.</t>
   </si>
   <si>
     <t>#1 take(s) off #his shoes.</t>
@@ -7760,7 +7760,7 @@
     <t>alreadyDecoded</t>
   </si>
   <si>
-    <t>그건 이미 해독이 끝났다</t>
+    <t>그건 이미 해독이 끝났다.</t>
   </si>
   <si>
     <t>It is already deciphered.</t>
@@ -7808,7 +7808,7 @@
     <t>spell_fail_confuse</t>
   </si>
   <si>
-    <t>너무 어려워!</t>
+    <t>너무 난해해!</t>
   </si>
   <si>
     <t>It's too difficult!</t>
@@ -7855,7 +7855,7 @@
   <si>
     <t>#1은(는) 욕을 했다.
 #1은(는) 귀를 막았다.
-#1은(는) #2의 연주를 비난했다</t>
+#1은(는) #2의 연주를 비난했다.</t>
   </si>
   <si>
     <t>#1 curse(s).
@@ -7910,7 +7910,7 @@
     <t>ride_good</t>
   </si>
   <si>
-    <t>이 생물은 승마용으로 좋아보인다!</t>
+    <t>이 생물은 승마용으로 좋아 보인다!</t>
   </si>
   <si>
     <t>This creature is good to ride!</t>
@@ -8247,7 +8247,7 @@
     <t>abort_allyDying</t>
   </si>
   <si>
-    <t>빈사상태의 동료가 있어서 전투를 중단했다.</t>
+    <t>빈사 상태의 동료가 있어서 전투를 중단했다.</t>
   </si>
   <si>
     <t>You cease combat as your ally is critically injured.</t>
@@ -8334,7 +8334,7 @@
     <t>noRide</t>
   </si>
   <si>
-    <t>탈 것에 타고있지 않다.</t>
+    <t>탈 것에 타고 있지 않다.</t>
   </si>
   <si>
     <t>You have no ride.</t>
@@ -8370,7 +8370,7 @@
     <t>allyDead</t>
   </si>
   <si>
-    <t>당신은 슬픔을 느낀다.</t>
+    <t>당신은 슬퍼졌다.</t>
   </si>
   <si>
     <t>You feel sad for a moment.</t>
@@ -8502,7 +8502,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>#1은(는) #2을(를) 지켜냈다</t>
+    <t>#1은(는) #2을(를) 보호했다.</t>
   </si>
   <si>
     <t>#1 protect(s) #2.</t>
@@ -8538,7 +8538,7 @@
     <t>dreambug</t>
   </si>
   <si>
-    <t>무언가가 #2의 소지품에 섞여들어갔다. #1은(는) 킥하고 비열한 웃음을 짓는다.</t>
+    <t>무언가가 #2의 소지품에 섞여들어갔다. #1은(는) 킥 하고 비열한 웃음을 짓는다.</t>
   </si>
   <si>
     <t>Something slips into #your2 inventory. A sly smile plays on #your lips.</t>
@@ -8745,7 +8745,7 @@
     <t>water_farm</t>
   </si>
   <si>
-    <t>#1은 #2에서 물을 주었다.</t>
+    <t>#1은 #2에게 물을 주었다.</t>
   </si>
   <si>
     <t>#1 water(s) the #2.</t>
@@ -8769,7 +8769,7 @@
     <t>pray</t>
   </si>
   <si>
-    <t>#1은(는) 신을 믿고있지 않다.</t>
+    <t>#1은(는) 신을 믿고 있지 않다.</t>
   </si>
   <si>
     <t>#1 don't/doesn't believe in God.</t>
@@ -8820,7 +8820,7 @@
     <t>#1은(는) 갑자기, 세계가 완전함을 느꼈다.
 #1의 전신이 환희에 떨었다.
 #1은(는) 완벽한 조화를 느꼈다.
-#1은(는) 모든 것이 한 몸이되는 감각에 사로잡혔다.</t>
+#1은(는) 모든 것이 하나가 되는 감각에 사로잡혔다.</t>
   </si>
   <si>
     <t>Suddenly, #1 feel(s) that the world is perfect.
@@ -9033,7 +9033,7 @@
     <t>monsterball_lv</t>
   </si>
   <si>
-    <t>그생물을 포획하기에는 더 높은 레벨의 몬스터 볼이 필요해.</t>
+    <t>그 생물을 포획하려면 더 높은 레벨의 몬스터 볼이 필요해.</t>
   </si>
   <si>
     <t>Power level of the ball is not enough to capture the creature.</t>
@@ -9045,7 +9045,7 @@
     <t>monsterball_hp</t>
   </si>
   <si>
-    <t>포획하기 위해서는, 더 약화시킬 필요가 있다.</t>
+    <t>포획하려면 더 약화시켜야 한다.</t>
   </si>
   <si>
     <t>You need to further weaken the creature to capture it.</t>
@@ -9123,7 +9123,7 @@
     <t>give_erohon</t>
   </si>
   <si>
-    <t>#1의 볼은 새빨게졌다.</t>
+    <t>#1의 볼은 새빨개졌다.</t>
   </si>
   <si>
     <t>#his cheeks turn bright red.</t>
@@ -9159,7 +9159,7 @@
     <t>cureCorruption</t>
   </si>
   <si>
-    <t>에테르 항체가 #1의 체내에 퍼쳤다.</t>
+    <t>에테르 항체가 #1의 체내에 퍼졌다.</t>
   </si>
   <si>
     <t>Ether antibodies are now spreading throughout #your body.</t>
@@ -9255,7 +9255,7 @@
     <t>blend_curse</t>
   </si>
   <si>
-    <t>#1은(는) 녹슬어버렸다…</t>
+    <t>#1은(는) 녹슬어 버렸다…</t>
   </si>
   <si>
     <t>#1 rust(s).</t>
@@ -9405,7 +9405,7 @@
     <t>regenerateZone</t>
   </si>
   <si>
-    <t>#1은(는) 전에 방문했던 때와는 달라진 듯한 느낌을 받는다.</t>
+    <t>#1은(는) 전에 방문했던 때와는 달라진 듯한 느낌이 든다.</t>
   </si>
   <si>
     <t>#1 feels different from when you visited before.</t>
@@ -9453,7 +9453,7 @@
     <t>package_chara</t>
   </si>
   <si>
-    <t>상자 속에서 #1이(가) 뛰어나왔다</t>
+    <t>상자 속에서 #1이(가) 뛰쳐나왔다!</t>
   </si>
   <si>
     <t>#1 jump(s) out of the box!</t>
@@ -9546,7 +9546,7 @@
     <t>badidea</t>
   </si>
   <si>
-    <t>그걸 현명하다고는 못 하겠는데.</t>
+    <t>그건 현명하다고는 못 하겠는데.</t>
   </si>
   <si>
     <t>That's a bad idea.</t>
@@ -9558,7 +9558,7 @@
     <t>seedLvLimit</t>
   </si>
   <si>
-    <t>#1의 품종개량에는 더 많은 농업 지식이 필요하다.</t>
+    <t>#1의 품종 개량에는 더 많은 농업 지식이 필요하다.</t>
   </si>
   <si>
     <t>You need more farming knowledge to enhance #1.</t>
@@ -9576,7 +9576,7 @@
     <t>learn_weakspot</t>
   </si>
   <si>
-    <t>#1은(는) #2의 약점을 배웠다.</t>
+    <t>#1은(는) #2의 약점을 익혔다.</t>
   </si>
   <si>
     <t>#1 learn(s) #2's weakspot.</t>
@@ -9651,7 +9651,7 @@
     <t>split_fail</t>
   </si>
   <si>
-    <t>#1은(는) 부르르 떨었다</t>
+    <t>#1은(는) 부르르 떨었다.</t>
   </si>
   <si>
     <t>#1 tremble(s) intensely.</t>
@@ -9750,7 +9750,7 @@
     <t>lick</t>
   </si>
   <si>
-    <t>#1은(는) #2을(를) 메롱메롱 핥았다.</t>
+    <t>#1은(는) #2을(를) 할짝할짝 핥았다.</t>
   </si>
   <si>
     <t>#1 lick(s) #2.</t>
@@ -9762,7 +9762,7 @@
     <t>lick2</t>
   </si>
   <si>
-    <t>#1은(는) #2의 #3을(를) 메롱메롱 핥았다.</t>
+    <t>#1은(는) #2의 #3을(를) 할짝할짝 핥았다.</t>
   </si>
   <si>
     <t>#1 lick(s) #your2 #3.</t>
@@ -9960,7 +9960,7 @@
     <t>statue_install</t>
   </si>
   <si>
-    <t>（…그런 곳에 놓아도 되는거야?）</t>
+    <t>（…그런 곳에 놓아도 되는 거야?）</t>
   </si>
   <si>
     <t>(...Are you sure it's alright to leave it there?)</t>
@@ -10119,7 +10119,7 @@
     <t>bounty</t>
   </si>
   <si>
-    <t>수배자를 쓰러뜨려 #2 오렌의 현상금을 받았다.</t>
+    <t>수배자를 쓰러뜨려 현상금 #2 오렌을 받았다.</t>
   </si>
   <si>
     <t>The Fighters Guild pays you #2 oren(s2) for the bounty target.</t>
@@ -10257,7 +10257,7 @@
     <t>upgrade_hearth</t>
   </si>
   <si>
-    <t>#2 맹약의 돌의 레벨이 #1으(로) 성장했다!</t>
+    <t>#2의 맹약의 돌의 레벨이 #1으(로) 성장했다!</t>
   </si>
   <si>
     <t>The hearth stone in #2 has grown to level #1!</t>
@@ -10554,7 +10554,7 @@
     <t>Beta 22.67</t>
   </si>
   <si>
-    <t>Mod 가 활성화되지 않았습니다.</t>
+    <t>Mod가 활성화되지 않았습니다.</t>
   </si>
   <si>
     <t>Mod is disabled.</t>
@@ -10743,7 +10743,7 @@
     <t>feelgood</t>
   </si>
   <si>
-    <t>#1은 건강해졌다!</t>
+    <t>#1은(는) 건강해졌다!</t>
   </si>
   <si>
     <t>#1 feel(s) very good!</t>
@@ -10917,7 +10917,7 @@
     <t>jure_hug2</t>
   </si>
   <si>
-    <t>&lt;i&gt;빠, 빨리 떨어져! 바보!&lt;/i&gt;</t>
+    <t>&lt;i&gt;빠, 빨리 떨어져! 바보야!&lt;/i&gt;</t>
   </si>
   <si>
     <t>&lt;i&gt;Q-Quit holding on! Stupid!&lt;/i&gt;</t>
@@ -10984,7 +10984,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -10999,6 +10999,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -11027,13 +11032,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -12636,7 +12644,7 @@
       <c r="C76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>309</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -12883,7 +12891,7 @@
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>368</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -13457,7 +13465,7 @@
       <c r="B122" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="3" t="s">
         <v>500</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -14017,7 +14025,7 @@
       <c r="C150" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="3" t="s">
         <v>617</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -14343,7 +14351,7 @@
       <c r="B169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="3" t="s">
         <v>696</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -14411,7 +14419,7 @@
       <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="3" t="s">
         <v>710</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -14462,7 +14470,7 @@
       <c r="B176" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="3" t="s">
         <v>722</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -15464,7 +15472,7 @@
       <c r="C227" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="3" t="s">
         <v>903</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -16344,7 +16352,7 @@
       <c r="C271" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D271" s="3" t="s">
         <v>1080</v>
       </c>
       <c r="E271" s="1" t="s">
@@ -16361,7 +16369,7 @@
       <c r="B272" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -17152,7 +17160,7 @@
       <c r="B318" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="D318" s="3" t="s">
         <v>1276</v>
       </c>
       <c r="E318" s="1" t="s">
@@ -17543,7 +17551,7 @@
       <c r="B341" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="D341" s="3" t="s">
         <v>1365</v>
       </c>
       <c r="E341" s="1" t="s">
@@ -17620,7 +17628,7 @@
       <c r="C345" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D345" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="E345" s="1" t="s">
@@ -17822,7 +17830,7 @@
       <c r="B356" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D356" s="3" t="s">
         <v>1428</v>
       </c>
       <c r="E356" s="1" t="s">
@@ -17959,7 +17967,7 @@
         <v>7</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1458</v>
+        <v>500</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>501</v>
@@ -17970,298 +17978,301 @@
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D365" s="1" t="s">
+      <c r="E365" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="E365" s="1" t="s">
+      <c r="F365" s="1" t="s">
         <v>1461</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D366" s="1" t="s">
+      <c r="E366" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="E366" s="1" t="s">
+      <c r="F366" s="1" t="s">
         <v>1465</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="D367" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E367" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="E367" s="1" t="s">
+      <c r="F367" s="1" t="s">
         <v>1469</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="E368" s="1" t="s">
+      <c r="F368" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="E369" s="1" t="s">
+      <c r="F369" s="1" t="s">
         <v>1477</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="D370" s="3" t="s">
         <v>1480</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="E370" s="1" t="s">
+      <c r="F370" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="E371" s="1" t="s">
+      <c r="F371" s="1" t="s">
         <v>1486</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D372" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E372" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="E372" s="1" t="s">
+      <c r="F372" s="1" t="s">
         <v>1490</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D373" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="E373" s="1" t="s">
+      <c r="F373" s="1" t="s">
         <v>1494</v>
-      </c>
-      <c r="F373" s="1" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D374" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D374" s="1" t="s">
+      <c r="E374" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="E374" s="1" t="s">
+      <c r="F374" s="1" t="s">
         <v>1498</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D375" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="E375" s="1" t="s">
+      <c r="F375" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="D376" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E376" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="E376" s="1" t="s">
+      <c r="F376" s="1" t="s">
         <v>1506</v>
-      </c>
-      <c r="F376" s="1" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D377" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E377" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="E377" s="1" t="s">
+      <c r="F377" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="F377" s="1" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="E378" s="1" t="s">
+      <c r="F378" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="E379" s="1" t="s">
+      <c r="F379" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D380" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E380" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="E380" s="1" t="s">
+      <c r="F380" s="1" t="s">
         <v>1522</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="E381" s="1" t="s">
+      <c r="F381" s="1" t="s">
         <v>1527</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="D382" s="4" t="s">
         <v>1530</v>
       </c>
       <c r="E382" s="1" t="s">
@@ -18295,7 +18306,7 @@
       <c r="B384" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="D384" s="3" t="s">
         <v>1540</v>
       </c>
       <c r="E384" s="1" t="s">
@@ -18601,7 +18612,7 @@
       <c r="B402" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="D402" s="3" t="s">
         <v>1613</v>
       </c>
       <c r="E402" s="1" t="s">
@@ -19026,7 +19037,7 @@
       <c r="B427" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D427" s="1" t="s">
+      <c r="D427" s="3" t="s">
         <v>1712</v>
       </c>
       <c r="E427" s="1" t="s">
@@ -19791,7 +19802,7 @@
       <c r="B472" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D472" s="1" t="s">
+      <c r="D472" s="3" t="s">
         <v>1889</v>
       </c>
       <c r="E472" s="1" t="s">
@@ -20063,7 +20074,7 @@
       <c r="B488" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D488" s="1" t="s">
+      <c r="D488" s="3" t="s">
         <v>1954</v>
       </c>
       <c r="E488" s="1" t="s">
@@ -20396,7 +20407,7 @@
         <v>7</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1458</v>
+        <v>500</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>501</v>
@@ -20480,7 +20491,7 @@
       <c r="B512" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="D512" s="1" t="s">
+      <c r="D512" s="3" t="s">
         <v>2048</v>
       </c>
       <c r="E512" s="1" t="s">
@@ -20514,7 +20525,7 @@
       <c r="B514" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="D514" s="1" t="s">
+      <c r="D514" s="3" t="s">
         <v>2056</v>
       </c>
       <c r="E514" s="1" t="s">
@@ -20565,7 +20576,7 @@
       <c r="B517" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D517" s="1" t="s">
+      <c r="D517" s="3" t="s">
         <v>2068</v>
       </c>
       <c r="E517" s="1" t="s">
@@ -20701,7 +20712,7 @@
       <c r="B525" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D525" s="1" t="s">
+      <c r="D525" s="3" t="s">
         <v>2099</v>
       </c>
       <c r="E525" s="1" t="s">
@@ -20803,7 +20814,7 @@
       <c r="B531" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D531" s="1" t="s">
+      <c r="D531" s="3" t="s">
         <v>2123</v>
       </c>
       <c r="E531" s="1" t="s">
@@ -20937,7 +20948,7 @@
       <c r="C538" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D538" s="1" t="s">
+      <c r="D538" s="3" t="s">
         <v>2153</v>
       </c>
       <c r="E538" s="1" t="s">
@@ -20957,7 +20968,7 @@
       <c r="C539" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D539" s="1" t="s">
+      <c r="D539" s="3" t="s">
         <v>2157</v>
       </c>
       <c r="E539" s="1" t="s">
@@ -20997,7 +21008,7 @@
       <c r="C541" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D541" s="1" t="s">
+      <c r="D541" s="3" t="s">
         <v>2165</v>
       </c>
       <c r="E541" s="1" t="s">
@@ -21254,7 +21265,7 @@
       <c r="B554" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D554" s="1" t="s">
+      <c r="D554" s="3" t="s">
         <v>2218</v>
       </c>
       <c r="E554" s="1" t="s">
@@ -21271,7 +21282,7 @@
       <c r="B555" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D555" s="1" t="s">
+      <c r="D555" s="3" t="s">
         <v>2222</v>
       </c>
       <c r="E555" s="1" t="s">
@@ -22142,7 +22153,7 @@
       <c r="B605" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D605" s="1" t="s">
+      <c r="D605" s="3" t="s">
         <v>2414</v>
       </c>
       <c r="E605" s="1" t="s">
@@ -22159,7 +22170,7 @@
       <c r="B606" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D606" s="1" t="s">
+      <c r="D606" s="3" t="s">
         <v>2418</v>
       </c>
       <c r="E606" s="1" t="s">
@@ -22533,7 +22544,7 @@
       <c r="B628" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D628" s="1" t="s">
+      <c r="D628" s="3" t="s">
         <v>2508</v>
       </c>
       <c r="E628" s="1" t="s">
@@ -22550,7 +22561,7 @@
       <c r="B629" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D629" s="1" t="s">
+      <c r="D629" s="3" t="s">
         <v>2512</v>
       </c>
       <c r="E629" s="1" t="s">
@@ -22652,7 +22663,7 @@
       <c r="B635" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D635" s="1" t="s">
+      <c r="D635" s="3" t="s">
         <v>2536</v>
       </c>
       <c r="E635" s="1" t="s">
@@ -22720,7 +22731,7 @@
       <c r="B639" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D639" s="1" t="s">
+      <c r="D639" s="3" t="s">
         <v>2552</v>
       </c>
       <c r="E639" s="1" t="s">
@@ -22771,7 +22782,7 @@
       <c r="B642" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D642" s="1" t="s">
+      <c r="D642" s="3" t="s">
         <v>2564</v>
       </c>
       <c r="E642" s="1" t="s">
@@ -22839,7 +22850,7 @@
       <c r="B646" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D646" s="1" t="s">
+      <c r="D646" s="3" t="s">
         <v>2581</v>
       </c>
       <c r="E646" s="1" t="s">
@@ -23281,7 +23292,7 @@
       <c r="B672" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D672" s="1" t="s">
+      <c r="D672" s="3" t="s">
         <v>2687</v>
       </c>
       <c r="E672" s="1" t="s">
@@ -23347,7 +23358,7 @@
         <v>2702</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>2703</v>
@@ -23417,7 +23428,7 @@
       <c r="B680" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D680" s="1" t="s">
+      <c r="D680" s="3" t="s">
         <v>2716</v>
       </c>
       <c r="E680" s="1" t="s">
@@ -23468,7 +23479,7 @@
       <c r="B683" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D683" s="1" t="s">
+      <c r="D683" s="3" t="s">
         <v>2728</v>
       </c>
       <c r="E683" s="1" t="s">
@@ -23655,7 +23666,7 @@
       <c r="B694" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D694" s="1" t="s">
+      <c r="D694" s="3" t="s">
         <v>2772</v>
       </c>
       <c r="E694" s="1" t="s">
@@ -23706,7 +23717,7 @@
       <c r="B697" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D697" s="1" t="s">
+      <c r="D697" s="3" t="s">
         <v>2784</v>
       </c>
       <c r="E697" s="1" t="s">
@@ -23995,7 +24006,7 @@
       <c r="B714" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D714" s="1" t="s">
+      <c r="D714" s="3" t="s">
         <v>2851</v>
       </c>
       <c r="E714" s="1" t="s">
@@ -24029,7 +24040,7 @@
       <c r="B716" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D716" s="1" t="s">
+      <c r="D716" s="3" t="s">
         <v>2859</v>
       </c>
       <c r="E716" s="1" t="s">
@@ -24080,7 +24091,7 @@
       <c r="B719" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D719" s="1" t="s">
+      <c r="D719" s="3" t="s">
         <v>2871</v>
       </c>
       <c r="E719" s="1" t="s">
@@ -24369,7 +24380,7 @@
       <c r="B736" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D736" s="1" t="s">
+      <c r="D736" s="3" t="s">
         <v>2940</v>
       </c>
       <c r="E736" s="1" t="s">
@@ -24386,7 +24397,7 @@
       <c r="B737" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D737" s="1" t="s">
+      <c r="D737" s="3" t="s">
         <v>2944</v>
       </c>
       <c r="E737" s="1" t="s">
@@ -24488,7 +24499,7 @@
       <c r="B743" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D743" s="1" t="s">
+      <c r="D743" s="3" t="s">
         <v>2968</v>
       </c>
       <c r="E743" s="1" t="s">
@@ -24539,7 +24550,7 @@
       <c r="B746" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D746" s="1" t="s">
+      <c r="D746" s="3" t="s">
         <v>2980</v>
       </c>
       <c r="E746" s="1" t="s">
@@ -24896,7 +24907,7 @@
       <c r="B767" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D767" s="1" t="s">
+      <c r="D767" s="3" t="s">
         <v>3062</v>
       </c>
       <c r="E767" s="1" t="s">
@@ -24964,7 +24975,7 @@
       <c r="B771" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D771" s="1" t="s">
+      <c r="D771" s="3" t="s">
         <v>3078</v>
       </c>
       <c r="E771" s="1" t="s">
@@ -25106,7 +25117,7 @@
       <c r="B779" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="D779" s="1" t="s">
+      <c r="D779" s="3" t="s">
         <v>3113</v>
       </c>
       <c r="E779" s="1" t="s">
@@ -25140,7 +25151,7 @@
       <c r="B781" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D781" s="1" t="s">
+      <c r="D781" s="3" t="s">
         <v>3119</v>
       </c>
       <c r="E781" s="1" t="s">
@@ -25242,7 +25253,7 @@
       <c r="B787" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D787" s="1" t="s">
+      <c r="D787" s="3" t="s">
         <v>3144</v>
       </c>
       <c r="E787" s="1" t="s">
@@ -25378,7 +25389,7 @@
       <c r="B795" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D795" s="1" t="s">
+      <c r="D795" s="3" t="s">
         <v>3177</v>
       </c>
       <c r="E795" s="1" t="s">
@@ -25395,7 +25406,7 @@
       <c r="B796" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D796" s="1" t="s">
+      <c r="D796" s="3" t="s">
         <v>3181</v>
       </c>
       <c r="E796" s="1" t="s">
@@ -25667,7 +25678,7 @@
       <c r="B812" s="1" t="s">
         <v>3242</v>
       </c>
-      <c r="D812" s="1" t="s">
+      <c r="D812" s="3" t="s">
         <v>3247</v>
       </c>
       <c r="E812" s="1" t="s">
@@ -25888,7 +25899,7 @@
       <c r="B825" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="D825" s="1" t="s">
+      <c r="D825" s="3" t="s">
         <v>3300</v>
       </c>
       <c r="E825" s="1" t="s">
@@ -26075,7 +26086,7 @@
       <c r="B836" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="D836" s="1" t="s">
+      <c r="D836" s="3" t="s">
         <v>3346</v>
       </c>
       <c r="E836" s="1" t="s">
@@ -26449,7 +26460,7 @@
       <c r="B858" s="1" t="s">
         <v>3444</v>
       </c>
-      <c r="D858" s="1" t="s">
+      <c r="D858" s="3" t="s">
         <v>3445</v>
       </c>
       <c r="E858" s="1" t="s">
@@ -26721,7 +26732,7 @@
       <c r="B874" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D874" s="1" t="s">
+      <c r="D874" s="3" t="s">
         <v>3508</v>
       </c>
       <c r="E874" s="1" t="s">
@@ -26959,7 +26970,7 @@
       <c r="B888" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D888" s="1" t="s">
+      <c r="D888" s="3" t="s">
         <v>3566</v>
       </c>
       <c r="E888" s="1" t="s">
